--- a/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08688225797581239</v>
+        <v>0.08688225797601135</v>
       </c>
       <c r="D2">
-        <v>0.2248523877080064</v>
+        <v>0.2248523877081947</v>
       </c>
       <c r="E2">
-        <v>12.55602791571349</v>
+        <v>12.55602791571351</v>
       </c>
       <c r="F2">
-        <v>3.618837817308815</v>
+        <v>3.618837817308844</v>
       </c>
       <c r="G2">
-        <v>3.099698323066349</v>
+        <v>3.099698323066377</v>
       </c>
       <c r="H2">
-        <v>2.82288235004772</v>
+        <v>2.822882350047735</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>47.92069749650631</v>
+        <v>47.92069749650653</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0497578215265726</v>
+        <v>0.04975782152645181</v>
       </c>
       <c r="D3">
-        <v>0.114588824995149</v>
+        <v>0.1145888249950548</v>
       </c>
       <c r="E3">
-        <v>9.092840698439915</v>
+        <v>9.092840698439886</v>
       </c>
       <c r="F3">
-        <v>2.245015471716528</v>
+        <v>2.245015471716584</v>
       </c>
       <c r="G3">
-        <v>1.866274337551886</v>
+        <v>1.866274337551914</v>
       </c>
       <c r="H3">
-        <v>1.736659838969643</v>
+        <v>1.736659838969672</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.58403797199941</v>
+        <v>35.58403797199935</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03792283329699586</v>
+        <v>0.03792283329675072</v>
       </c>
       <c r="D4">
-        <v>0.08071496286098112</v>
+        <v>0.08071496286107172</v>
       </c>
       <c r="E4">
-        <v>7.759265454540497</v>
+        <v>7.759265454540412</v>
       </c>
       <c r="F4">
         <v>1.764456074105183</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>30.60128009666875</v>
+        <v>30.60128009666852</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0340667480969401</v>
+        <v>0.03406674809705379</v>
       </c>
       <c r="D5">
-        <v>0.06994667534051047</v>
+        <v>0.06994667534051802</v>
       </c>
       <c r="E5">
         <v>7.284404006675203</v>
       </c>
       <c r="F5">
-        <v>1.603044571499183</v>
+        <v>1.603044571499169</v>
       </c>
       <c r="G5">
-        <v>1.303423378261137</v>
+        <v>1.303423378261108</v>
       </c>
       <c r="H5">
-        <v>1.232451822170631</v>
+        <v>1.232451822170624</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>28.80206358563072</v>
+        <v>28.80206358563089</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0334679435190175</v>
+        <v>0.03346794351889315</v>
       </c>
       <c r="D6">
-        <v>0.06828979219857301</v>
+        <v>0.06828979219851394</v>
       </c>
       <c r="E6">
         <v>7.208476081391979</v>
       </c>
       <c r="F6">
-        <v>1.577761832515094</v>
+        <v>1.577761832515051</v>
       </c>
       <c r="G6">
-        <v>1.281478293351597</v>
+        <v>1.28147829335154</v>
       </c>
       <c r="H6">
-        <v>1.212649165175193</v>
+        <v>1.212649165175165</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>28.51325558148267</v>
+        <v>28.51325558148272</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0378677586266285</v>
+        <v>0.0378677586265006</v>
       </c>
       <c r="D7">
-        <v>0.08056005131870547</v>
+        <v>0.08056005131877697</v>
       </c>
       <c r="E7">
-        <v>7.752644622423219</v>
+        <v>7.75264462242319</v>
       </c>
       <c r="F7">
-        <v>1.762167706155253</v>
+        <v>1.762167706155282</v>
       </c>
       <c r="G7">
-        <v>1.441958423651002</v>
+        <v>1.44195842365103</v>
       </c>
       <c r="H7">
         <v>1.357187178013476</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>30.57627932846935</v>
+        <v>30.57627932846924</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D8">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E8">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F8">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G8">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H8">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D9">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E9">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F9">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G9">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H9">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D10">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E10">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F10">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G10">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H10">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D11">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E11">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F11">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G11">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H11">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D12">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E12">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F12">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G12">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H12">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D13">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E13">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F13">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G13">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H13">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D14">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E14">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F14">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G14">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H14">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D15">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E15">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F15">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G15">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H15">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D16">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E16">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F16">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G16">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H16">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D17">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E17">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F17">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G17">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H17">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D18">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E18">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F18">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G18">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H18">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D19">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E19">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F19">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G19">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H19">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D20">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E20">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F20">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G20">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H20">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D21">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E21">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F21">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G21">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H21">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D22">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E22">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F22">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G22">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H22">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D23">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E23">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F23">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G23">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H23">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D24">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E24">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F24">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G24">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H24">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06918043866392054</v>
+        <v>0.06918043866407331</v>
       </c>
       <c r="D25">
-        <v>0.1718146871999799</v>
+        <v>0.1718146872001416</v>
       </c>
       <c r="E25">
-        <v>11.00414610633479</v>
+        <v>11.00414610633501</v>
       </c>
       <c r="F25">
-        <v>2.987818383002036</v>
+        <v>2.987818383002178</v>
       </c>
       <c r="G25">
-        <v>2.528789141799933</v>
+        <v>2.528789141800047</v>
       </c>
       <c r="H25">
-        <v>2.322863504978429</v>
+        <v>2.322863504978528</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.51476197095553</v>
+        <v>42.51476197095633</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08688225797601135</v>
+        <v>0.08688225797581239</v>
       </c>
       <c r="D2">
-        <v>0.2248523877081947</v>
+        <v>0.2248523877080064</v>
       </c>
       <c r="E2">
-        <v>12.55602791571351</v>
+        <v>12.55602791571349</v>
       </c>
       <c r="F2">
-        <v>3.618837817308844</v>
+        <v>3.618837817308815</v>
       </c>
       <c r="G2">
-        <v>3.099698323066377</v>
+        <v>3.099698323066349</v>
       </c>
       <c r="H2">
-        <v>2.822882350047735</v>
+        <v>2.82288235004772</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>47.92069749650653</v>
+        <v>47.92069749650631</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04975782152645181</v>
+        <v>0.0497578215265726</v>
       </c>
       <c r="D3">
-        <v>0.1145888249950548</v>
+        <v>0.114588824995149</v>
       </c>
       <c r="E3">
-        <v>9.092840698439886</v>
+        <v>9.092840698439915</v>
       </c>
       <c r="F3">
-        <v>2.245015471716584</v>
+        <v>2.245015471716528</v>
       </c>
       <c r="G3">
-        <v>1.866274337551914</v>
+        <v>1.866274337551886</v>
       </c>
       <c r="H3">
-        <v>1.736659838969672</v>
+        <v>1.736659838969643</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.58403797199935</v>
+        <v>35.58403797199941</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03792283329675072</v>
+        <v>0.03792283329699586</v>
       </c>
       <c r="D4">
-        <v>0.08071496286107172</v>
+        <v>0.08071496286098112</v>
       </c>
       <c r="E4">
-        <v>7.759265454540412</v>
+        <v>7.759265454540497</v>
       </c>
       <c r="F4">
         <v>1.764456074105183</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>30.60128009666852</v>
+        <v>30.60128009666875</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03406674809705379</v>
+        <v>0.0340667480969401</v>
       </c>
       <c r="D5">
-        <v>0.06994667534051802</v>
+        <v>0.06994667534051047</v>
       </c>
       <c r="E5">
         <v>7.284404006675203</v>
       </c>
       <c r="F5">
-        <v>1.603044571499169</v>
+        <v>1.603044571499183</v>
       </c>
       <c r="G5">
-        <v>1.303423378261108</v>
+        <v>1.303423378261137</v>
       </c>
       <c r="H5">
-        <v>1.232451822170624</v>
+        <v>1.232451822170631</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>28.80206358563089</v>
+        <v>28.80206358563072</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03346794351889315</v>
+        <v>0.0334679435190175</v>
       </c>
       <c r="D6">
-        <v>0.06828979219851394</v>
+        <v>0.06828979219857301</v>
       </c>
       <c r="E6">
         <v>7.208476081391979</v>
       </c>
       <c r="F6">
-        <v>1.577761832515051</v>
+        <v>1.577761832515094</v>
       </c>
       <c r="G6">
-        <v>1.28147829335154</v>
+        <v>1.281478293351597</v>
       </c>
       <c r="H6">
-        <v>1.212649165175165</v>
+        <v>1.212649165175193</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>28.51325558148272</v>
+        <v>28.51325558148267</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0378677586265006</v>
+        <v>0.0378677586266285</v>
       </c>
       <c r="D7">
-        <v>0.08056005131877697</v>
+        <v>0.08056005131870547</v>
       </c>
       <c r="E7">
-        <v>7.75264462242319</v>
+        <v>7.752644622423219</v>
       </c>
       <c r="F7">
-        <v>1.762167706155282</v>
+        <v>1.762167706155253</v>
       </c>
       <c r="G7">
-        <v>1.44195842365103</v>
+        <v>1.441958423651002</v>
       </c>
       <c r="H7">
         <v>1.357187178013476</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>30.57627932846924</v>
+        <v>30.57627932846935</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D8">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E8">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F8">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G8">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H8">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D9">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E9">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F9">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G9">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H9">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D10">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E10">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F10">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G10">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H10">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D11">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E11">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F11">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G11">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H11">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D12">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E12">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F12">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G12">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H12">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D13">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E13">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F13">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G13">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H13">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D14">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E14">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F14">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G14">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H14">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D15">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E15">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F15">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G15">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H15">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D16">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E16">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F16">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G16">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H16">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D17">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E17">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F17">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G17">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H17">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D18">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E18">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F18">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G18">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H18">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D19">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E19">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F19">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G19">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H19">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D20">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E20">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F20">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G20">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H20">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D21">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E21">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F21">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G21">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H21">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D22">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E22">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F22">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G22">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H22">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D23">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E23">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F23">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G23">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H23">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D24">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E24">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F24">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G24">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H24">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06918043866407331</v>
+        <v>0.06918043866392054</v>
       </c>
       <c r="D25">
-        <v>0.1718146872001416</v>
+        <v>0.1718146871999799</v>
       </c>
       <c r="E25">
-        <v>11.00414610633501</v>
+        <v>11.00414610633479</v>
       </c>
       <c r="F25">
-        <v>2.987818383002178</v>
+        <v>2.987818383002036</v>
       </c>
       <c r="G25">
-        <v>2.528789141800047</v>
+        <v>2.528789141799933</v>
       </c>
       <c r="H25">
-        <v>2.322863504978528</v>
+        <v>2.322863504978429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.51476197095633</v>
+        <v>42.51476197095553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,25 +418,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08688225797581239</v>
+        <v>0.08664128713916242</v>
       </c>
       <c r="D2">
-        <v>0.2248523877080064</v>
+        <v>0.2240377716687902</v>
       </c>
       <c r="E2">
-        <v>12.55602791571349</v>
+        <v>12.54806068324615</v>
       </c>
       <c r="F2">
-        <v>3.618837817308815</v>
+        <v>3.609458212621419</v>
       </c>
       <c r="G2">
-        <v>3.099698323066349</v>
+        <v>1.105854807408647</v>
       </c>
       <c r="H2">
-        <v>2.82288235004772</v>
+        <v>1.986457532991693</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.815412236610939</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,10 +445,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>47.92069749650631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>47.89054365729913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,25 +459,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0497578215265726</v>
+        <v>0.04968571736821303</v>
       </c>
       <c r="D3">
-        <v>0.114588824995149</v>
+        <v>0.1142884692506465</v>
       </c>
       <c r="E3">
-        <v>9.092840698439915</v>
+        <v>9.091330818659713</v>
       </c>
       <c r="F3">
-        <v>2.245015471716528</v>
+        <v>2.240856965488319</v>
       </c>
       <c r="G3">
-        <v>1.866274337551886</v>
+        <v>0.6753286812232204</v>
       </c>
       <c r="H3">
-        <v>1.736659838969643</v>
+        <v>1.18963258433557</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.733359342343462</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,10 +486,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.58403797199941</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>35.57683859911396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,25 +500,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03792283329699586</v>
+        <v>0.0378832003745444</v>
       </c>
       <c r="D4">
-        <v>0.08071496286098112</v>
+        <v>0.08051805977774773</v>
       </c>
       <c r="E4">
-        <v>7.759265454540497</v>
+        <v>7.758437210595361</v>
       </c>
       <c r="F4">
-        <v>1.764456074105183</v>
+        <v>1.761417222794307</v>
       </c>
       <c r="G4">
-        <v>1.44395578794493</v>
+        <v>0.525777238789999</v>
       </c>
       <c r="H4">
-        <v>1.358982257686705</v>
+        <v>0.9183395332922402</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.356574476717952</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,10 +527,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>30.60128009666875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>30.59700670707497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,25 +541,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0340667480969401</v>
+        <v>0.03403640114332163</v>
       </c>
       <c r="D5">
-        <v>0.06994667534051047</v>
+        <v>0.0697802209238656</v>
       </c>
       <c r="E5">
-        <v>7.284404006675203</v>
+        <v>7.283739231343873</v>
       </c>
       <c r="F5">
-        <v>1.603044571499183</v>
+        <v>1.60034667732981</v>
       </c>
       <c r="G5">
-        <v>1.303423378261137</v>
+        <v>0.4756449530677216</v>
       </c>
       <c r="H5">
-        <v>1.232451822170631</v>
+        <v>0.8284037545603269</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.230315688856905</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,10 +568,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>28.80206358563072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>28.79854478972373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,25 +582,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0334679435190175</v>
+        <v>0.03343898276199297</v>
       </c>
       <c r="D6">
-        <v>0.06828979219857301</v>
+        <v>0.06812793224035252</v>
       </c>
       <c r="E6">
-        <v>7.208476081391979</v>
+        <v>7.207834571123641</v>
       </c>
       <c r="F6">
-        <v>1.577761832515094</v>
+        <v>1.575115999759944</v>
       </c>
       <c r="G6">
-        <v>1.281478293351597</v>
+        <v>0.4677961403774091</v>
       </c>
       <c r="H6">
-        <v>1.212649165175193</v>
+        <v>0.8143790789577849</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.210554500185999</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,10 +609,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>28.51325558148267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>28.50984657182232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,25 +623,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0378677586266285</v>
+        <v>0.03782826269758743</v>
       </c>
       <c r="D7">
-        <v>0.08056005131870547</v>
+        <v>0.08036359373794788</v>
       </c>
       <c r="E7">
-        <v>7.752644622423219</v>
+        <v>7.751818887992869</v>
       </c>
       <c r="F7">
-        <v>1.762167706155253</v>
+        <v>1.759133796917624</v>
       </c>
       <c r="G7">
-        <v>1.441958423651002</v>
+        <v>0.5250661959169207</v>
       </c>
       <c r="H7">
-        <v>1.357187178013476</v>
+        <v>0.9170598875690814</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.354783335271676</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,10 +650,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>30.57627932846935</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>30.5720173209321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D8">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E8">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F8">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G8">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H8">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,10 +691,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,25 +705,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D9">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E9">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F9">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G9">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H9">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,10 +732,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,25 +746,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D10">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E10">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F10">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G10">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H10">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,10 +773,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,25 +787,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D11">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E11">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F11">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G11">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H11">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,10 +814,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,25 +828,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D12">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E12">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F12">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G12">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H12">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,10 +855,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,25 +869,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D13">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E13">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F13">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G13">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H13">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,10 +896,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,25 +910,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D14">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E14">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F14">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G14">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H14">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,10 +937,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,25 +951,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D15">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E15">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F15">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G15">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H15">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,10 +978,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,25 +992,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D16">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E16">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F16">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G16">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H16">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,10 +1019,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,25 +1033,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D17">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E17">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F17">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G17">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H17">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,10 +1060,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,25 +1074,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D18">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E18">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F18">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G18">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H18">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,10 +1101,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,25 +1115,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D19">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E19">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F19">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G19">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H19">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,10 +1142,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,25 +1156,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D20">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E20">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F20">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G20">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H20">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,10 +1183,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,25 +1197,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D21">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E21">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F21">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G21">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H21">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,10 +1224,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,25 +1238,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D22">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E22">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F22">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G22">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H22">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,10 +1265,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,25 +1279,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D23">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E23">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F23">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G23">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H23">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,10 +1306,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D24">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E24">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F24">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G24">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H24">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,10 +1347,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>42.51476197095553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>42.49960756549956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,25 +1361,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06918043866392054</v>
+        <v>0.06903850187224236</v>
       </c>
       <c r="D25">
-        <v>0.1718146871999799</v>
+        <v>0.1712992706336385</v>
       </c>
       <c r="E25">
-        <v>11.00414610633479</v>
+        <v>11.00054698514958</v>
       </c>
       <c r="F25">
-        <v>2.987818383002036</v>
+        <v>2.981437011294418</v>
       </c>
       <c r="G25">
-        <v>2.528789141799933</v>
+        <v>0.9075498538580149</v>
       </c>
       <c r="H25">
-        <v>2.322863504978429</v>
+        <v>1.617199297295528</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.317788688763201</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.51476197095553</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>42.49960756549956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08664128713916242</v>
+        <v>0.1655184639549105</v>
       </c>
       <c r="D2">
-        <v>0.2240377716687902</v>
+        <v>0.1187554462654532</v>
       </c>
       <c r="E2">
-        <v>12.54806068324615</v>
+        <v>0.1374380863486806</v>
       </c>
       <c r="F2">
-        <v>3.609458212621419</v>
+        <v>2.70960883551038</v>
       </c>
       <c r="G2">
-        <v>1.105854807408647</v>
+        <v>0.0006901139000824137</v>
       </c>
       <c r="H2">
-        <v>1.986457532991693</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.815412236610939</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2507190037803753</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.37484835945349</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>47.89054365729913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.904298279320528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04968571736821303</v>
+        <v>0.1385680786051608</v>
       </c>
       <c r="D3">
-        <v>0.1142884692506465</v>
+        <v>0.09647654486454726</v>
       </c>
       <c r="E3">
-        <v>9.091330818659713</v>
+        <v>0.1206448112902869</v>
       </c>
       <c r="F3">
-        <v>2.240856965488319</v>
+        <v>2.225239833184759</v>
       </c>
       <c r="G3">
-        <v>0.6753286812232204</v>
+        <v>0.0007156413835504211</v>
       </c>
       <c r="H3">
-        <v>1.18963258433557</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.733359342343462</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2148268364315982</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.07354522872242</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>35.57683859911396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.532197446447228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0378832003745444</v>
+        <v>0.1230928707294652</v>
       </c>
       <c r="D4">
-        <v>0.08051805977774773</v>
+        <v>0.08432115585176447</v>
       </c>
       <c r="E4">
-        <v>7.758437210595361</v>
+        <v>0.1108070549073972</v>
       </c>
       <c r="F4">
-        <v>1.761417222794307</v>
+        <v>1.979132711442105</v>
       </c>
       <c r="G4">
-        <v>0.525777238789999</v>
+        <v>0.0007309824106869829</v>
       </c>
       <c r="H4">
-        <v>0.9183395332922402</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.356574476717952</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1948133642349035</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.13233216843327</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>30.59700670707497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.345783548985921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03403640114332163</v>
+        <v>0.1169942940076965</v>
       </c>
       <c r="D5">
-        <v>0.0697802209238656</v>
+        <v>0.0796559244671684</v>
       </c>
       <c r="E5">
-        <v>7.283739231343873</v>
+        <v>0.106890679511352</v>
       </c>
       <c r="F5">
-        <v>1.60034667732981</v>
+        <v>1.889025506582527</v>
       </c>
       <c r="G5">
-        <v>0.4756449530677216</v>
+        <v>0.0007371896883567543</v>
       </c>
       <c r="H5">
-        <v>0.8284037545603269</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.230315688856905</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1870592609729513</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.35764119657273</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>28.79854478972373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.278148676446705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03343898276199297</v>
+        <v>0.1159926699804714</v>
       </c>
       <c r="D6">
-        <v>0.06812793224035252</v>
+        <v>0.078896396258191</v>
       </c>
       <c r="E6">
-        <v>7.207834571123641</v>
+        <v>0.1062453142638873</v>
       </c>
       <c r="F6">
-        <v>1.575115999759944</v>
+        <v>1.874612890491676</v>
       </c>
       <c r="G6">
-        <v>0.4677961403774091</v>
+        <v>0.0007382186825676514</v>
       </c>
       <c r="H6">
-        <v>0.8143790789577849</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.210554500185999</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1857933453121632</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.22986596601822</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>28.50984657182232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.267367029494906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03782826269758743</v>
+        <v>0.1230098520935172</v>
       </c>
       <c r="D7">
-        <v>0.08036359373794788</v>
+        <v>0.08425717793694076</v>
       </c>
       <c r="E7">
-        <v>7.751818887992869</v>
+        <v>0.1107538923905267</v>
       </c>
       <c r="F7">
-        <v>1.759133796917624</v>
+        <v>1.97787930349736</v>
       </c>
       <c r="G7">
-        <v>0.5250661959169207</v>
+        <v>0.0007310662591884</v>
       </c>
       <c r="H7">
-        <v>0.9170598875690814</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.354783335271676</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1947072848357365</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.12182403254064</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>30.5720173209321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.344840185396919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06903850187224236</v>
+        <v>0.155960051409366</v>
       </c>
       <c r="D8">
-        <v>0.1712992706336385</v>
+        <v>0.1106903035873543</v>
       </c>
       <c r="E8">
-        <v>11.00054698514958</v>
+        <v>0.131531122565903</v>
       </c>
       <c r="F8">
-        <v>2.981437011294418</v>
+        <v>2.530042388816724</v>
       </c>
       <c r="G8">
-        <v>0.9075498538580149</v>
+        <v>0.0006990124260863311</v>
       </c>
       <c r="H8">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2378479304989014</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.21512675211756</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.765689247785915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06903850187224236</v>
+        <v>0.2333457341499496</v>
       </c>
       <c r="D9">
-        <v>0.1712992706336385</v>
+        <v>0.181331936680003</v>
       </c>
       <c r="E9">
-        <v>11.00054698514958</v>
+        <v>0.1778188147579982</v>
       </c>
       <c r="F9">
-        <v>2.981437011294418</v>
+        <v>4.209625724820171</v>
       </c>
       <c r="G9">
-        <v>0.9075498538580149</v>
+        <v>0.0006308064018911142</v>
       </c>
       <c r="H9">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3459316342018042</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>30.27564578957345</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.081883347974738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06903850187224236</v>
+        <v>0.3092559544275701</v>
       </c>
       <c r="D10">
-        <v>0.1712992706336385</v>
+        <v>0.2630847323753684</v>
       </c>
       <c r="E10">
-        <v>11.00054698514958</v>
+        <v>0.2198080996314715</v>
       </c>
       <c r="F10">
-        <v>2.981437011294418</v>
+        <v>6.320796729079177</v>
       </c>
       <c r="G10">
-        <v>0.9075498538580149</v>
+        <v>0.0005702867412375235</v>
       </c>
       <c r="H10">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.459402338214133</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>38.4725442403157</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>4.774468028859843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06903850187224236</v>
+        <v>0.3549955449769726</v>
       </c>
       <c r="D11">
-        <v>0.1712992706336385</v>
+        <v>0.3187264425085345</v>
       </c>
       <c r="E11">
-        <v>11.00054698514958</v>
+        <v>0.2434335627729283</v>
       </c>
       <c r="F11">
-        <v>2.981437011294418</v>
+        <v>7.801883008009753</v>
       </c>
       <c r="G11">
-        <v>0.9075498538580149</v>
+        <v>0.000536019380130375</v>
       </c>
       <c r="H11">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5308872540111054</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>43.08806786875522</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>5.976946537330122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06903850187224236</v>
+        <v>0.3758188359963412</v>
       </c>
       <c r="D12">
-        <v>0.1712992706336385</v>
+        <v>0.3457304385262177</v>
       </c>
       <c r="E12">
-        <v>11.00054698514958</v>
+        <v>0.2537584606867043</v>
       </c>
       <c r="F12">
-        <v>2.981437011294418</v>
+        <v>8.527436582302471</v>
       </c>
       <c r="G12">
-        <v>0.9075498538580149</v>
+        <v>0.0005208786144230334</v>
       </c>
       <c r="H12">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5641647025779406</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>45.10727817477465</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>6.569414696523367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06903850187224236</v>
+        <v>0.3711088119230084</v>
       </c>
       <c r="D13">
-        <v>0.1712992706336385</v>
+        <v>0.3395287013326751</v>
       </c>
       <c r="E13">
-        <v>11.00054698514958</v>
+        <v>0.2514470575509478</v>
       </c>
       <c r="F13">
-        <v>2.981437011294418</v>
+        <v>8.360520902223953</v>
       </c>
       <c r="G13">
-        <v>0.9075498538580149</v>
+        <v>0.0005242796799844979</v>
       </c>
       <c r="H13">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5565981858211586</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>44.65511019920399</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>6.432938178402139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06903850187224236</v>
+        <v>0.3566158084278044</v>
       </c>
       <c r="D14">
-        <v>0.1712992706336385</v>
+        <v>0.320789422128172</v>
       </c>
       <c r="E14">
-        <v>11.00054698514958</v>
+        <v>0.244246737722257</v>
       </c>
       <c r="F14">
-        <v>2.981437011294418</v>
+        <v>7.857189334675184</v>
       </c>
       <c r="G14">
-        <v>0.9075498538580149</v>
+        <v>0.0005348314539031753</v>
       </c>
       <c r="H14">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5334603336378905</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>43.24704417726031</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>6.022035915627725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06903850187224236</v>
+        <v>0.3483017070988836</v>
       </c>
       <c r="D15">
-        <v>0.1712992706336385</v>
+        <v>0.3102712402328436</v>
       </c>
       <c r="E15">
-        <v>11.00054698514958</v>
+        <v>0.2400566896430476</v>
       </c>
       <c r="F15">
-        <v>2.981437011294418</v>
+        <v>7.57545091719615</v>
       </c>
       <c r="G15">
-        <v>0.9075498538580149</v>
+        <v>0.0005409451361413821</v>
       </c>
       <c r="H15">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5202862801462658</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>42.42797858424291</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>5.792474663598824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06903850187224236</v>
+        <v>0.3066000330281611</v>
       </c>
       <c r="D16">
-        <v>0.1712992706336385</v>
+        <v>0.2600050795971995</v>
       </c>
       <c r="E16">
-        <v>11.00054698514958</v>
+        <v>0.2183970035648883</v>
       </c>
       <c r="F16">
-        <v>2.981437011294418</v>
+        <v>6.239571071823349</v>
       </c>
       <c r="G16">
-        <v>0.9075498538580149</v>
+        <v>0.0005723224796542691</v>
       </c>
       <c r="H16">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.455321018597175</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>38.19702881745189</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>4.708828618119753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06903850187224236</v>
+        <v>0.2846068517476681</v>
       </c>
       <c r="D17">
-        <v>0.1712992706336385</v>
+        <v>0.2351250926841004</v>
       </c>
       <c r="E17">
-        <v>11.00054698514958</v>
+        <v>0.2065489466375325</v>
       </c>
       <c r="F17">
-        <v>2.981437011294418</v>
+        <v>5.587256601676899</v>
       </c>
       <c r="G17">
-        <v>0.9075498538580149</v>
+        <v>0.000589391167212099</v>
       </c>
       <c r="H17">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.421825954644504</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>35.88411999081853</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>4.18302235499543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06903850187224236</v>
+        <v>0.272855976459681</v>
       </c>
       <c r="D18">
-        <v>0.1712992706336385</v>
+        <v>0.2222810091142833</v>
       </c>
       <c r="E18">
-        <v>11.00054698514958</v>
+        <v>0.2001001259381319</v>
       </c>
       <c r="F18">
-        <v>2.981437011294418</v>
+        <v>5.253665874502843</v>
       </c>
       <c r="G18">
-        <v>0.9075498538580149</v>
+        <v>0.0005986731112664623</v>
       </c>
       <c r="H18">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4041541350271558</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>34.62539609738678</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.91512361969221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06903850187224236</v>
+        <v>0.2690057276422095</v>
       </c>
       <c r="D19">
-        <v>0.1712992706336385</v>
+        <v>0.2181397237767584</v>
       </c>
       <c r="E19">
-        <v>11.00054698514958</v>
+        <v>0.1979692991721826</v>
       </c>
       <c r="F19">
-        <v>2.981437011294418</v>
+        <v>5.14664263380584</v>
       </c>
       <c r="G19">
-        <v>0.9075498538580149</v>
+        <v>0.0006017403057869036</v>
       </c>
       <c r="H19">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3983985330347366</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>34.20949159842689</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.829331724924316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06903850187224236</v>
+        <v>0.2868482378216157</v>
       </c>
       <c r="D20">
-        <v>0.1712992706336385</v>
+        <v>0.2376102825928186</v>
       </c>
       <c r="E20">
-        <v>11.00054698514958</v>
+        <v>0.2077696722465987</v>
       </c>
       <c r="F20">
-        <v>2.981437011294418</v>
+        <v>5.65207219074091</v>
       </c>
       <c r="G20">
-        <v>0.9075498538580149</v>
+        <v>0.0005876338906951458</v>
       </c>
       <c r="H20">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4252146447035159</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>36.12239749138831</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>4.235156038143842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06903850187224236</v>
+        <v>0.3607461906901932</v>
       </c>
       <c r="D21">
-        <v>0.1712992706336385</v>
+        <v>0.3260773802416423</v>
       </c>
       <c r="E21">
-        <v>11.00054698514958</v>
+        <v>0.2463122427450983</v>
       </c>
       <c r="F21">
-        <v>2.981437011294418</v>
+        <v>7.999053846937869</v>
       </c>
       <c r="G21">
-        <v>0.9075498538580149</v>
+        <v>0.0005318107938413474</v>
       </c>
       <c r="H21">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5400320853386518</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>43.65089193039432</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>6.137749264381895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06903850187224236</v>
+        <v>0.435578443231492</v>
       </c>
       <c r="D22">
-        <v>0.1712992706336385</v>
+        <v>0.4293228708805898</v>
       </c>
       <c r="E22">
-        <v>11.00054698514958</v>
+        <v>0.2818362277461404</v>
       </c>
       <c r="F22">
-        <v>2.981437011294418</v>
+        <v>10.78772683739041</v>
       </c>
       <c r="G22">
-        <v>0.9075498538580149</v>
+        <v>0.0004788458915874748</v>
       </c>
       <c r="H22">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6621398311571483</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>50.60693477220576</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>8.4266953608726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06903850187224236</v>
+        <v>0.3908536365526203</v>
       </c>
       <c r="D23">
-        <v>0.1712992706336385</v>
+        <v>0.3658984163196024</v>
       </c>
       <c r="E23">
-        <v>11.00054698514958</v>
+        <v>0.2610418208360414</v>
       </c>
       <c r="F23">
-        <v>2.981437011294418</v>
+        <v>9.071209974624821</v>
       </c>
       <c r="G23">
-        <v>0.9075498538580149</v>
+        <v>0.0005101115603614028</v>
       </c>
       <c r="H23">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5884709054682702</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>46.53262465311008</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>7.014717701192055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06903850187224236</v>
+        <v>0.2858322148988037</v>
       </c>
       <c r="D24">
-        <v>0.1712992706336385</v>
+        <v>0.2364823361103632</v>
       </c>
       <c r="E24">
-        <v>11.00054698514958</v>
+        <v>0.207216687314137</v>
       </c>
       <c r="F24">
-        <v>2.981437011294418</v>
+        <v>5.62264425673564</v>
       </c>
       <c r="G24">
-        <v>0.9075498538580149</v>
+        <v>0.0005884299525026476</v>
       </c>
       <c r="H24">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4236778406060324</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>36.01445803643594</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>42.49960756549956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>4.211482811616321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06903850187224236</v>
+        <v>0.2102673460558577</v>
       </c>
       <c r="D25">
-        <v>0.1712992706336385</v>
+        <v>0.1589683069926551</v>
       </c>
       <c r="E25">
-        <v>11.00054698514958</v>
+        <v>0.1643806692457161</v>
       </c>
       <c r="F25">
-        <v>2.981437011294418</v>
+        <v>3.656498191013895</v>
       </c>
       <c r="G25">
-        <v>0.9075498538580149</v>
+        <v>0.0006503234314367195</v>
       </c>
       <c r="H25">
-        <v>1.617199297295528</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.317788688763201</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3128228294722959</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>27.65015145590655</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>42.49960756549956</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.644354203679285</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1655184639549105</v>
+        <v>0.1221946714365885</v>
       </c>
       <c r="D2">
-        <v>0.1187554462654532</v>
+        <v>0.007364140351297621</v>
       </c>
       <c r="E2">
-        <v>0.1374380863486806</v>
+        <v>0.1299150751193956</v>
       </c>
       <c r="F2">
-        <v>2.70960883551038</v>
+        <v>1.797698682742762</v>
       </c>
       <c r="G2">
-        <v>0.0006901139000824137</v>
+        <v>0.0007488463572690494</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.542038469277145</v>
       </c>
       <c r="J2">
-        <v>0.2507190037803753</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>22.37484835945349</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.21519056443897</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>1.904298279320528</v>
+        <v>6.043687636112566</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1385680786051608</v>
+        <v>0.1115443333273589</v>
       </c>
       <c r="D3">
-        <v>0.09647654486454726</v>
+        <v>0.007153179242235908</v>
       </c>
       <c r="E3">
-        <v>0.1206448112902869</v>
+        <v>0.1155336962870415</v>
       </c>
       <c r="F3">
-        <v>2.225239833184759</v>
+        <v>1.572264000286538</v>
       </c>
       <c r="G3">
-        <v>0.0007156413835504211</v>
+        <v>0.0007561192714179518</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.353947958768572</v>
       </c>
       <c r="J3">
-        <v>0.2148268364315982</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>19.07354522872242</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1894313576298075</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.74968365211538</v>
       </c>
       <c r="O3">
-        <v>1.532197446447228</v>
+        <v>5.293319871489985</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1230928707294652</v>
+        <v>0.105201634494108</v>
       </c>
       <c r="D4">
-        <v>0.08432115585176447</v>
+        <v>0.007045417021720013</v>
       </c>
       <c r="E4">
-        <v>0.1108070549073972</v>
+        <v>0.1069295122109182</v>
       </c>
       <c r="F4">
-        <v>1.979132711442105</v>
+        <v>1.436777802587372</v>
       </c>
       <c r="G4">
-        <v>0.0007309824106869829</v>
+        <v>0.0007607140738950357</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.241039462566619</v>
       </c>
       <c r="J4">
-        <v>0.1948133642349035</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>17.13233216843327</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1739960993985363</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.187481969423061</v>
       </c>
       <c r="O4">
-        <v>1.345783548985921</v>
+        <v>4.842671968718264</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1169942940076965</v>
+        <v>0.1026621333834328</v>
       </c>
       <c r="D5">
-        <v>0.0796559244671684</v>
+        <v>0.007006440925488633</v>
       </c>
       <c r="E5">
-        <v>0.106890679511352</v>
+        <v>0.103474217276311</v>
       </c>
       <c r="F5">
-        <v>1.889025506582527</v>
+        <v>1.382217882360393</v>
       </c>
       <c r="G5">
-        <v>0.0007371896883567543</v>
+        <v>0.000762620284928425</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.195603988297322</v>
       </c>
       <c r="J5">
-        <v>0.1870592609729513</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>16.35764119657273</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1677912841918214</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.958052239810286</v>
       </c>
       <c r="O5">
-        <v>1.278148676446705</v>
+        <v>4.661272870876076</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1159926699804714</v>
+        <v>0.1022430631080056</v>
       </c>
       <c r="D6">
-        <v>0.078896396258191</v>
+        <v>0.007000252650101402</v>
       </c>
       <c r="E6">
-        <v>0.1062453142638873</v>
+        <v>0.102903384698152</v>
       </c>
       <c r="F6">
-        <v>1.874612890491676</v>
+        <v>1.373195248739037</v>
       </c>
       <c r="G6">
-        <v>0.0007382186825676514</v>
+        <v>0.0007629388870231935</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.188092204526242</v>
       </c>
       <c r="J6">
-        <v>0.1857933453121632</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>16.22986596601822</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1667658292637526</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>1.267367029494906</v>
+        <v>4.631279118185546</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1230098520935172</v>
+        <v>0.105167208258095</v>
       </c>
       <c r="D7">
-        <v>0.08425717793694076</v>
+        <v>0.007044872049030815</v>
       </c>
       <c r="E7">
-        <v>0.1107538923905267</v>
+        <v>0.1068827138870034</v>
       </c>
       <c r="F7">
-        <v>1.97787930349736</v>
+        <v>1.436039457203833</v>
       </c>
       <c r="G7">
-        <v>0.0007310662591884</v>
+        <v>0.0007607396432795523</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.240424465406136</v>
       </c>
       <c r="J7">
-        <v>0.1947072848357365</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>17.12182403254064</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1739120876370279</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.184389112219776</v>
       </c>
       <c r="O7">
-        <v>1.344840185396919</v>
+        <v>4.84021684102629</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.155960051409366</v>
+        <v>0.1184789533469655</v>
       </c>
       <c r="D8">
-        <v>0.1106903035873543</v>
+        <v>0.007286540907937678</v>
       </c>
       <c r="E8">
-        <v>0.131531122565903</v>
+        <v>0.1249057806600398</v>
       </c>
       <c r="F8">
-        <v>2.530042388816724</v>
+        <v>1.719306723032219</v>
       </c>
       <c r="G8">
-        <v>0.0006990124260863311</v>
+        <v>0.0007513280569613624</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.476603510144031</v>
       </c>
       <c r="J8">
-        <v>0.2378479304989014</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>21.21512675211756</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2062230359634611</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.348453399592813</v>
       </c>
       <c r="O8">
-        <v>1.765689247785915</v>
+        <v>5.782685461679023</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2333457341499496</v>
+        <v>0.1463551292827105</v>
       </c>
       <c r="D9">
-        <v>0.181331936680003</v>
+        <v>0.007960918222774893</v>
       </c>
       <c r="E9">
-        <v>0.1778188147579982</v>
+        <v>0.1623348259940514</v>
       </c>
       <c r="F9">
-        <v>4.209625724820171</v>
+        <v>2.30231500565516</v>
       </c>
       <c r="G9">
-        <v>0.0006308064018911142</v>
+        <v>0.0007338326810155139</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.963868294490112</v>
       </c>
       <c r="J9">
-        <v>0.3459316342018042</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>30.27564578957345</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2731385049925166</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.620230281550789</v>
       </c>
       <c r="O9">
-        <v>3.081883347974738</v>
+        <v>7.725403880218721</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3092559544275701</v>
+        <v>0.168244586091248</v>
       </c>
       <c r="D10">
-        <v>0.2630847323753684</v>
+        <v>0.008623743032156739</v>
       </c>
       <c r="E10">
-        <v>0.2198080996314715</v>
+        <v>0.1915610338741871</v>
       </c>
       <c r="F10">
-        <v>6.320796729079177</v>
+        <v>2.754071484591094</v>
       </c>
       <c r="G10">
-        <v>0.0005702867412375235</v>
+        <v>0.0007214648883415173</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.342255625072653</v>
       </c>
       <c r="J10">
-        <v>0.459402338214133</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>38.4725442403157</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3252958871493234</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.28258838837513</v>
       </c>
       <c r="O10">
-        <v>4.774468028859843</v>
+        <v>9.233059195566</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3549955449769726</v>
+        <v>0.1785924099428939</v>
       </c>
       <c r="D11">
-        <v>0.3187264425085345</v>
+        <v>0.008973934352965784</v>
       </c>
       <c r="E11">
-        <v>0.2434335627729283</v>
+        <v>0.2053485514075462</v>
       </c>
       <c r="F11">
-        <v>7.801883008009753</v>
+        <v>2.966375538823627</v>
       </c>
       <c r="G11">
-        <v>0.000536019380130375</v>
+        <v>0.0007159187424018096</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.520282432587834</v>
       </c>
       <c r="J11">
-        <v>0.5308872540111054</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>43.08806786875522</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3498865765711514</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.03742316731751</v>
       </c>
       <c r="O11">
-        <v>5.976946537330122</v>
+        <v>9.942205261084837</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3758188359963412</v>
+        <v>0.1825749532331145</v>
       </c>
       <c r="D12">
-        <v>0.3457304385262177</v>
+        <v>0.009114787442946692</v>
       </c>
       <c r="E12">
-        <v>0.2537584606867043</v>
+        <v>0.2106514957201213</v>
       </c>
       <c r="F12">
-        <v>8.527436582302471</v>
+        <v>3.047909975747899</v>
       </c>
       <c r="G12">
-        <v>0.0005208786144230334</v>
+        <v>0.0007138276754802467</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.588684294260432</v>
       </c>
       <c r="J12">
-        <v>0.5641647025779406</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>45.10727817477465</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3593430706334431</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>6.569414696523367</v>
+        <v>10.21465030586529</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3711088119230084</v>
+        <v>0.181714255657198</v>
       </c>
       <c r="D13">
-        <v>0.3395287013326751</v>
+        <v>0.009084063474148252</v>
       </c>
       <c r="E13">
-        <v>0.2514470575509478</v>
+        <v>0.2095055764235454</v>
       </c>
       <c r="F13">
-        <v>8.360520902223953</v>
+        <v>3.030296590803232</v>
       </c>
       <c r="G13">
-        <v>0.0005242796799844979</v>
+        <v>0.0007142776584878007</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.573906424101608</v>
       </c>
       <c r="J13">
-        <v>0.5565981858211586</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>44.65511019920399</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3572996656123735</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.2615545799186</v>
       </c>
       <c r="O13">
-        <v>6.432938178402139</v>
+        <v>10.15579100776239</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3566158084278044</v>
+        <v>0.1789187235613241</v>
       </c>
       <c r="D14">
-        <v>0.320789422128172</v>
+        <v>0.008985349325197234</v>
       </c>
       <c r="E14">
-        <v>0.244246737722257</v>
+        <v>0.2057831174608253</v>
       </c>
       <c r="F14">
-        <v>7.857189334675184</v>
+        <v>2.97305958596462</v>
       </c>
       <c r="G14">
-        <v>0.0005348314539031753</v>
+        <v>0.0007157465403966776</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.52588925331041</v>
       </c>
       <c r="J14">
-        <v>0.5334603336378905</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>43.24704417726031</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3506615456768145</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.06092695796559</v>
       </c>
       <c r="O14">
-        <v>6.022035915627725</v>
+        <v>9.964537739901914</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3483017070988836</v>
+        <v>0.1772149727281374</v>
       </c>
       <c r="D15">
-        <v>0.3102712402328436</v>
+        <v>0.008925998124080792</v>
       </c>
       <c r="E15">
-        <v>0.2400566896430476</v>
+        <v>0.2035140251377214</v>
       </c>
       <c r="F15">
-        <v>7.57545091719615</v>
+        <v>2.938153828571529</v>
       </c>
       <c r="G15">
-        <v>0.0005409451361413821</v>
+        <v>0.0007166473876234106</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.496610317726905</v>
       </c>
       <c r="J15">
-        <v>0.5202862801462658</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>42.42797858424291</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3466149753072756</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.93801081193851</v>
       </c>
       <c r="O15">
-        <v>5.792474663598824</v>
+        <v>9.847916091758805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3066000330281611</v>
+        <v>0.1675768396504509</v>
       </c>
       <c r="D16">
-        <v>0.2600050795971995</v>
+        <v>0.008601938261016073</v>
       </c>
       <c r="E16">
-        <v>0.2183970035648883</v>
+        <v>0.1906708126883245</v>
       </c>
       <c r="F16">
-        <v>6.239571071823349</v>
+        <v>2.740347086129447</v>
       </c>
       <c r="G16">
-        <v>0.0005723224796542691</v>
+        <v>0.0007218287564004059</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.330751293776117</v>
       </c>
       <c r="J16">
-        <v>0.455321018597175</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>38.19702881745189</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3237078896833339</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.23323027560724</v>
       </c>
       <c r="O16">
-        <v>4.708828618119753</v>
+        <v>9.187229683864359</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2846068517476681</v>
+        <v>0.1617694433063406</v>
       </c>
       <c r="D17">
-        <v>0.2351250926841004</v>
+        <v>0.00841642537653442</v>
       </c>
       <c r="E17">
-        <v>0.2065489466375325</v>
+        <v>0.1829254966934073</v>
       </c>
       <c r="F17">
-        <v>5.587256601676899</v>
+        <v>2.620849062303193</v>
       </c>
       <c r="G17">
-        <v>0.000589391167212099</v>
+        <v>0.0007250262579703917</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.230605883694878</v>
       </c>
       <c r="J17">
-        <v>0.421825954644504</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>35.88411999081853</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3098900689860358</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>4.18302235499543</v>
+        <v>8.788262572469705</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.272855976459681</v>
+        <v>0.1584653809519523</v>
       </c>
       <c r="D18">
-        <v>0.2222810091142833</v>
+        <v>0.008314218470445667</v>
       </c>
       <c r="E18">
-        <v>0.2001001259381319</v>
+        <v>0.1785161973752807</v>
       </c>
       <c r="F18">
-        <v>5.253665874502843</v>
+        <v>2.552745967623054</v>
       </c>
       <c r="G18">
-        <v>0.0005986731112664623</v>
+        <v>0.0007268730663832648</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.173550598653151</v>
       </c>
       <c r="J18">
-        <v>0.4041541350271558</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>34.62539609738678</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3020223933871762</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>10.55149949033284</v>
       </c>
       <c r="O18">
-        <v>3.91512361969221</v>
+        <v>8.560943760071609</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2690057276422095</v>
+        <v>0.1573526731130244</v>
       </c>
       <c r="D19">
-        <v>0.2181397237767584</v>
+        <v>0.008280350404259451</v>
       </c>
       <c r="E19">
-        <v>0.1979692991721826</v>
+        <v>0.177030800508085</v>
       </c>
       <c r="F19">
-        <v>5.14664263380584</v>
+        <v>2.529790855511237</v>
       </c>
       <c r="G19">
-        <v>0.0006017403057869036</v>
+        <v>0.0007274997523692028</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.154322431309126</v>
       </c>
       <c r="J19">
-        <v>0.3983985330347366</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>34.20949159842689</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2993716918745264</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>3.829331724924316</v>
+        <v>8.484332111775245</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2868482378216157</v>
+        <v>0.1623838497626195</v>
       </c>
       <c r="D20">
-        <v>0.2376102825928186</v>
+        <v>0.008435699944261188</v>
       </c>
       <c r="E20">
-        <v>0.2077696722465987</v>
+        <v>0.1837452031964588</v>
       </c>
       <c r="F20">
-        <v>5.65207219074091</v>
+        <v>2.633503622664477</v>
       </c>
       <c r="G20">
-        <v>0.0005876338906951458</v>
+        <v>0.0007246850988028229</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.241209103859703</v>
       </c>
       <c r="J20">
-        <v>0.4252146447035159</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>36.12239749138831</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3113525843413925</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>4.235156038143842</v>
+        <v>8.830506312656325</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3607461906901932</v>
+        <v>0.1797380326731002</v>
       </c>
       <c r="D21">
-        <v>0.3260773802416423</v>
+        <v>0.009014109365512724</v>
       </c>
       <c r="E21">
-        <v>0.2463122427450983</v>
+        <v>0.2068741751813121</v>
       </c>
       <c r="F21">
-        <v>7.999053846937869</v>
+        <v>2.989839160572075</v>
       </c>
       <c r="G21">
-        <v>0.0005318107938413474</v>
+        <v>0.0007153148665178534</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.539965075730493</v>
       </c>
       <c r="J21">
-        <v>0.5400320853386518</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>43.65089193039432</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3526072249124041</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>6.137749264381895</v>
+        <v>10.0206026429866</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.435578443231492</v>
+        <v>0.1914577420123607</v>
       </c>
       <c r="D22">
-        <v>0.4293228708805898</v>
+        <v>0.009440920595341851</v>
       </c>
       <c r="E22">
-        <v>0.2818362277461404</v>
+        <v>0.2224739699348817</v>
       </c>
       <c r="F22">
-        <v>10.78772683739041</v>
+        <v>3.229457891654448</v>
       </c>
       <c r="G22">
-        <v>0.0004788458915874748</v>
+        <v>0.000709242821167518</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.741050387375836</v>
       </c>
       <c r="J22">
-        <v>0.6621398311571483</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>50.60693477220576</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.380423385912934</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.95085643057945</v>
       </c>
       <c r="O22">
-        <v>8.4266953608726</v>
+        <v>10.82148375525225</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3908536365526203</v>
+        <v>0.1851652578597651</v>
       </c>
       <c r="D23">
-        <v>0.3658984163196024</v>
+        <v>0.009208190413673378</v>
       </c>
       <c r="E23">
-        <v>0.2610418208360414</v>
+        <v>0.2140997521851205</v>
       </c>
       <c r="F23">
-        <v>9.071209974624821</v>
+        <v>3.100893626890013</v>
       </c>
       <c r="G23">
-        <v>0.0005101115603614028</v>
+        <v>0.0007124796957952641</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.633143003878587</v>
       </c>
       <c r="J23">
-        <v>0.5884709054682702</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>46.53262465311008</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3654918291764204</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>7.014717701192055</v>
+        <v>10.39172312882573</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2858322148988037</v>
+        <v>0.1621059691475892</v>
       </c>
       <c r="D24">
-        <v>0.2364823361103632</v>
+        <v>0.008426972152363987</v>
       </c>
       <c r="E24">
-        <v>0.207216687314137</v>
+        <v>0.1833744789465754</v>
       </c>
       <c r="F24">
-        <v>5.62264425673564</v>
+        <v>2.627780645538962</v>
       </c>
       <c r="G24">
-        <v>0.0005884299525026476</v>
+        <v>0.0007248393101486198</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.236413779721545</v>
       </c>
       <c r="J24">
-        <v>0.4236778406060324</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>36.01445803643594</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3106911447610656</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>4.211482811616321</v>
+        <v>8.811401565078711</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2102673460558577</v>
+        <v>0.1385923777539659</v>
       </c>
       <c r="D25">
-        <v>0.1589683069926551</v>
+        <v>0.00775276901972255</v>
       </c>
       <c r="E25">
-        <v>0.1643806692457161</v>
+        <v>0.1519419595302693</v>
       </c>
       <c r="F25">
-        <v>3.656498191013895</v>
+        <v>2.141007658950016</v>
       </c>
       <c r="G25">
-        <v>0.0006503234314367195</v>
+        <v>0.0007384724626381124</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.828918616902456</v>
       </c>
       <c r="J25">
-        <v>0.3128228294722959</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>27.65015145590655</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2545756937443713</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>2.644354203679285</v>
+        <v>7.187533421665592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1221946714365885</v>
+        <v>0.1820850610631197</v>
       </c>
       <c r="D2">
-        <v>0.007364140351297621</v>
+        <v>0.0213911499970223</v>
       </c>
       <c r="E2">
-        <v>0.1299150751193956</v>
+        <v>0.1309150718809882</v>
       </c>
       <c r="F2">
-        <v>1.797698682742762</v>
+        <v>1.21103156460741</v>
       </c>
       <c r="G2">
-        <v>0.0007488463572690494</v>
+        <v>0.00241949403477844</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.542038469277145</v>
+        <v>1.163511203300033</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.21519056443897</v>
+        <v>0.1758153550338051</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
-        <v>6.043687636112566</v>
+        <v>4.266805778577407</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1115443333273589</v>
+        <v>0.180673226964899</v>
       </c>
       <c r="D3">
-        <v>0.007153179242235908</v>
+        <v>0.02150530346882995</v>
       </c>
       <c r="E3">
-        <v>0.1155336962870415</v>
+        <v>0.1282938749517548</v>
       </c>
       <c r="F3">
-        <v>1.572264000286538</v>
+        <v>1.16187534105795</v>
       </c>
       <c r="G3">
-        <v>0.0007561192714179518</v>
+        <v>0.002424323654527597</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.353947958768572</v>
+        <v>1.12408729910365</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1894313576298075</v>
+        <v>0.1706748245311402</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
-        <v>5.293319871489985</v>
+        <v>4.106082441381545</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.105201634494108</v>
+        <v>0.1798937303394439</v>
       </c>
       <c r="D4">
-        <v>0.007045417021720013</v>
+        <v>0.02158405416785669</v>
       </c>
       <c r="E4">
-        <v>0.1069295122109182</v>
+        <v>0.1267606846778939</v>
       </c>
       <c r="F4">
-        <v>1.436777802587372</v>
+        <v>1.132458981401882</v>
       </c>
       <c r="G4">
-        <v>0.0007607140738950357</v>
+        <v>0.002427448008595435</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.241039462566619</v>
+        <v>1.100605263042169</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1739960993985363</v>
+        <v>0.1676285239038577</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
-        <v>4.842671968718264</v>
+        <v>4.010087063132914</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1026621333834328</v>
+        <v>0.1795980346744983</v>
       </c>
       <c r="D5">
-        <v>0.007006440925488633</v>
+        <v>0.02161831890285981</v>
       </c>
       <c r="E5">
-        <v>0.103474217276311</v>
+        <v>0.1261550105877767</v>
       </c>
       <c r="F5">
-        <v>1.382217882360393</v>
+        <v>1.120663222324197</v>
       </c>
       <c r="G5">
-        <v>0.000762620284928425</v>
+        <v>0.002428761312759271</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.195603988297322</v>
+        <v>1.091217549903931</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1677912841918214</v>
+        <v>0.1664146691013144</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>4.661272870876076</v>
+        <v>3.971641334929245</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1022430631080056</v>
+        <v>0.1795502602560788</v>
       </c>
       <c r="D6">
-        <v>0.007000252650101402</v>
+        <v>0.02162413966502186</v>
       </c>
       <c r="E6">
-        <v>0.102903384698152</v>
+        <v>0.126055591635005</v>
       </c>
       <c r="F6">
-        <v>1.373195248739037</v>
+        <v>1.118716094122945</v>
       </c>
       <c r="G6">
-        <v>0.0007629388870231935</v>
+        <v>0.002428981812177232</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.188092204526242</v>
+        <v>1.089669662163672</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1667658292637526</v>
+        <v>0.1662147690242648</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>4.631279118185546</v>
+        <v>3.96529801887624</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.105167208258095</v>
+        <v>0.1798896536076739</v>
       </c>
       <c r="D7">
-        <v>0.007044872049030815</v>
+        <v>0.02158450748133234</v>
       </c>
       <c r="E7">
-        <v>0.1068827138870034</v>
+        <v>0.1267524390294206</v>
       </c>
       <c r="F7">
-        <v>1.436039457203833</v>
+        <v>1.132299124909693</v>
       </c>
       <c r="G7">
-        <v>0.0007607396432795523</v>
+        <v>0.002427465557627493</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.240424465406136</v>
+        <v>1.100477923543778</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1739120876370279</v>
+        <v>0.1676120420978577</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>4.84021684102629</v>
+        <v>4.009565849089768</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1184789533469655</v>
+        <v>0.1815801154143628</v>
       </c>
       <c r="D8">
-        <v>0.007286540907937678</v>
+        <v>0.0214287099896282</v>
       </c>
       <c r="E8">
-        <v>0.1249057806600398</v>
+        <v>0.1299954251434094</v>
       </c>
       <c r="F8">
-        <v>1.719306723032219</v>
+        <v>1.19392299650508</v>
       </c>
       <c r="G8">
-        <v>0.0007513280569613624</v>
+        <v>0.002421126380007168</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.476603510144031</v>
+        <v>1.149767023358507</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2062230359634611</v>
+        <v>0.1740199911302085</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209654</v>
       </c>
       <c r="O8">
-        <v>5.782685461679023</v>
+        <v>4.210828249189092</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1463551292827105</v>
+        <v>0.1855895181492144</v>
       </c>
       <c r="D9">
-        <v>0.007960918222774893</v>
+        <v>0.02119212000829762</v>
       </c>
       <c r="E9">
-        <v>0.1623348259940514</v>
+        <v>0.1369628760972219</v>
       </c>
       <c r="F9">
-        <v>2.30231500565516</v>
+        <v>1.320892216726264</v>
       </c>
       <c r="G9">
-        <v>0.0007338326810155139</v>
+        <v>0.00240995025057349</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.963868294490112</v>
+        <v>1.252211094437143</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2731385049925166</v>
+        <v>0.187465320791631</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550789</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>7.725403880218721</v>
+        <v>4.627008972195881</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.168244586091248</v>
+        <v>0.1889607340252581</v>
       </c>
       <c r="D10">
-        <v>0.008623743032156739</v>
+        <v>0.0210606377703364</v>
       </c>
       <c r="E10">
-        <v>0.1915610338741871</v>
+        <v>0.1424575016859322</v>
       </c>
       <c r="F10">
-        <v>2.754071484591094</v>
+        <v>1.417989857857179</v>
       </c>
       <c r="G10">
-        <v>0.0007214648883415173</v>
+        <v>0.002402495546409715</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.342255625072653</v>
+        <v>1.331071227906264</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3252958871493234</v>
+        <v>0.1978900075677643</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>9.233059195566</v>
+        <v>4.946156478208536</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1785924099428939</v>
+        <v>0.1905873037923556</v>
       </c>
       <c r="D11">
-        <v>0.008973934352965784</v>
+        <v>0.02101009120175945</v>
       </c>
       <c r="E11">
-        <v>0.2053485514075462</v>
+        <v>0.1450398561336996</v>
       </c>
       <c r="F11">
-        <v>2.966375538823627</v>
+        <v>1.463008112900809</v>
       </c>
       <c r="G11">
-        <v>0.0007159187424018096</v>
+        <v>0.002399266604323518</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.520282432587834</v>
+        <v>1.367742183416638</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3498865765711514</v>
+        <v>0.2027534419483175</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>9.942205261084837</v>
+        <v>5.094311143175617</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1825749532331145</v>
+        <v>0.191216647170549</v>
       </c>
       <c r="D12">
-        <v>0.009114787442946692</v>
+        <v>0.02099228925552055</v>
       </c>
       <c r="E12">
-        <v>0.2106514957201213</v>
+        <v>0.1460297154526415</v>
       </c>
       <c r="F12">
-        <v>3.047909975747899</v>
+        <v>1.480178544764243</v>
       </c>
       <c r="G12">
-        <v>0.0007138276754802467</v>
+        <v>0.00239806707645935</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.588684294260432</v>
+        <v>1.381744171662575</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3593430706334431</v>
+        <v>0.2046126905016621</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>10.21465030586529</v>
+        <v>5.15084518216895</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.181714255657198</v>
+        <v>0.1910805105778905</v>
       </c>
       <c r="D13">
-        <v>0.009084063474148252</v>
+        <v>0.02099606356556194</v>
       </c>
       <c r="E13">
-        <v>0.2095055764235454</v>
+        <v>0.1458159977282207</v>
       </c>
       <c r="F13">
-        <v>3.030296590803232</v>
+        <v>1.476475097936799</v>
       </c>
       <c r="G13">
-        <v>0.0007142776584878007</v>
+        <v>0.002398324386342494</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.573906424101608</v>
+        <v>1.378723442314637</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3572996656123735</v>
+        <v>0.2042114842439844</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>10.15579100776239</v>
+        <v>5.138650335089608</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1789187235613241</v>
+        <v>0.1906388116128284</v>
       </c>
       <c r="D14">
-        <v>0.008985349325197234</v>
+        <v>0.02100859975131542</v>
       </c>
       <c r="E14">
-        <v>0.2057831174608253</v>
+        <v>0.1451210520098343</v>
       </c>
       <c r="F14">
-        <v>2.97305958596462</v>
+        <v>1.464418263595377</v>
       </c>
       <c r="G14">
-        <v>0.0007157465403966776</v>
+        <v>0.00239916745413159</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.52588925331041</v>
+        <v>1.368891815708324</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3506615456768145</v>
+        <v>0.202906050452853</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>9.964537739901914</v>
+        <v>5.098953572300616</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1772149727281374</v>
+        <v>0.1903700036573781</v>
       </c>
       <c r="D15">
-        <v>0.008925998124080792</v>
+        <v>0.02101645309753053</v>
       </c>
       <c r="E15">
-        <v>0.2035140251377214</v>
+        <v>0.1446969395863604</v>
       </c>
       <c r="F15">
-        <v>2.938153828571529</v>
+        <v>1.457049153434156</v>
       </c>
       <c r="G15">
-        <v>0.0007166473876234106</v>
+        <v>0.00239968687528944</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.496610317726905</v>
+        <v>1.362884727316214</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3466149753072756</v>
+        <v>0.2021087272071327</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>9.847916091758805</v>
+        <v>5.074694405999821</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1675768396504509</v>
+        <v>0.1888563071406253</v>
       </c>
       <c r="D16">
-        <v>0.008601938261016073</v>
+        <v>0.02106412810813652</v>
       </c>
       <c r="E16">
-        <v>0.1906708126883245</v>
+        <v>0.142290411126659</v>
       </c>
       <c r="F16">
-        <v>2.740347086129447</v>
+        <v>1.415064963122234</v>
       </c>
       <c r="G16">
-        <v>0.0007218287564004059</v>
+        <v>0.002402709819187761</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.330751293776117</v>
+        <v>1.328690808459214</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3237078896833339</v>
+        <v>0.1975746216708387</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>9.187229683864359</v>
+        <v>4.936534349568376</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1617694433063406</v>
+        <v>0.1879515372129248</v>
       </c>
       <c r="D17">
-        <v>0.00841642537653442</v>
+        <v>0.02109575287444443</v>
       </c>
       <c r="E17">
-        <v>0.1829254966934073</v>
+        <v>0.1408353445562867</v>
       </c>
       <c r="F17">
-        <v>2.620849062303193</v>
+        <v>1.389526968570152</v>
       </c>
       <c r="G17">
-        <v>0.0007250262579703917</v>
+        <v>0.002404605759666012</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.230605883694878</v>
+        <v>1.307918716518429</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3098900689860358</v>
+        <v>0.1948242369593203</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>8.788262572469705</v>
+        <v>4.852541587904739</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1584653809519523</v>
+        <v>0.1874398882641088</v>
       </c>
       <c r="D18">
-        <v>0.008314218470445667</v>
+        <v>0.02111481429403383</v>
       </c>
       <c r="E18">
-        <v>0.1785161973752807</v>
+        <v>0.1400062201814407</v>
       </c>
       <c r="F18">
-        <v>2.552745967623054</v>
+        <v>1.37491794862629</v>
       </c>
       <c r="G18">
-        <v>0.0007268730663832648</v>
+        <v>0.002405711533308187</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.173550598653151</v>
+        <v>1.296046131035396</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3020223933871762</v>
+        <v>0.1932536868446704</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>8.560943760071609</v>
+        <v>4.80451077513834</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1573526731130244</v>
+        <v>0.1872681549195505</v>
       </c>
       <c r="D19">
-        <v>0.008280350404259451</v>
+        <v>0.02112141767955933</v>
       </c>
       <c r="E19">
-        <v>0.177030800508085</v>
+        <v>0.1397268290449105</v>
       </c>
       <c r="F19">
-        <v>2.529790855511237</v>
+        <v>1.36998525252784</v>
       </c>
       <c r="G19">
-        <v>0.0007274997523692028</v>
+        <v>0.002406088557027975</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.154322431309126</v>
+        <v>1.292039127776562</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2993716918745264</v>
+        <v>0.1927238788912575</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>8.484332111775245</v>
+        <v>4.788296280678196</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1623838497626195</v>
+        <v>0.1880469456630607</v>
       </c>
       <c r="D20">
-        <v>0.008435699944261188</v>
+        <v>0.02109229610164576</v>
       </c>
       <c r="E20">
-        <v>0.1837452031964588</v>
+        <v>0.1409894320031029</v>
       </c>
       <c r="F20">
-        <v>2.633503622664477</v>
+        <v>1.392237269412419</v>
       </c>
       <c r="G20">
-        <v>0.0007246850988028229</v>
+        <v>0.002404402353337351</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.241209103859703</v>
+        <v>1.310122175544663</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3113525843413925</v>
+        <v>0.1951158393735142</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003280837</v>
       </c>
       <c r="O20">
-        <v>8.830506312656325</v>
+        <v>4.861453797260253</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1797380326731002</v>
+        <v>0.1907681855161485</v>
       </c>
       <c r="D21">
-        <v>0.009014109365512724</v>
+        <v>0.02100488117778099</v>
       </c>
       <c r="E21">
-        <v>0.2068741751813121</v>
+        <v>0.1453248487924981</v>
       </c>
       <c r="F21">
-        <v>2.989839160572075</v>
+        <v>1.467956301613981</v>
       </c>
       <c r="G21">
-        <v>0.0007153148665178534</v>
+        <v>0.002398919195752315</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.539965075730493</v>
+        <v>1.3717764612813</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3526072249124041</v>
+        <v>0.2032890099561371</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571254</v>
       </c>
       <c r="O21">
-        <v>10.0206026429866</v>
+        <v>5.110601745461395</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1914577420123607</v>
+        <v>0.192624771782107</v>
       </c>
       <c r="D22">
-        <v>0.009440920595341851</v>
+        <v>0.02095555810053185</v>
       </c>
       <c r="E22">
-        <v>0.2224739699348817</v>
+        <v>0.148228142127941</v>
       </c>
       <c r="F22">
-        <v>3.229457891654448</v>
+        <v>1.518160476400283</v>
       </c>
       <c r="G22">
-        <v>0.000709242821167518</v>
+        <v>0.002395470818995049</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.741050387375836</v>
+        <v>1.412744699467538</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.380423385912934</v>
+        <v>0.2087331380031543</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
-        <v>10.82148375525225</v>
+        <v>5.275948717082031</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1851652578597651</v>
+        <v>0.1916267220930337</v>
       </c>
       <c r="D23">
-        <v>0.009208190413673378</v>
+        <v>0.02098116610948608</v>
       </c>
       <c r="E23">
-        <v>0.2140997521851205</v>
+        <v>0.1466721859508979</v>
       </c>
       <c r="F23">
-        <v>3.100893626890013</v>
+        <v>1.491299570416487</v>
       </c>
       <c r="G23">
-        <v>0.0007124796957952641</v>
+        <v>0.002397298955384617</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.633143003878587</v>
+        <v>1.390817253235113</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3654918291764204</v>
+        <v>0.2058180784953976</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
-        <v>10.39172312882573</v>
+        <v>5.187468660132538</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1621059691475892</v>
+        <v>0.1880037849810066</v>
       </c>
       <c r="D24">
-        <v>0.008426972152363987</v>
+        <v>0.02109385616825676</v>
       </c>
       <c r="E24">
-        <v>0.1833744789465754</v>
+        <v>0.1409197459848599</v>
       </c>
       <c r="F24">
-        <v>2.627780645538962</v>
+        <v>1.391011714737942</v>
       </c>
       <c r="G24">
-        <v>0.0007248393101486198</v>
+        <v>0.002404494264198968</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.236413779721545</v>
+        <v>1.309125775089342</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3106911447610656</v>
+        <v>0.1949839726598555</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>8.811401565078711</v>
+        <v>4.857423784822913</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1385923777539659</v>
+        <v>0.1844303053047298</v>
       </c>
       <c r="D25">
-        <v>0.00775276901972255</v>
+        <v>0.02124871243840332</v>
       </c>
       <c r="E25">
-        <v>0.1519419595302693</v>
+        <v>0.1350123955114313</v>
       </c>
       <c r="F25">
-        <v>2.141007658950016</v>
+        <v>1.285879800927859</v>
       </c>
       <c r="G25">
-        <v>0.0007384724626381124</v>
+        <v>0.002412840234357405</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.828918616902456</v>
+        <v>1.223870829721307</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2545756937443713</v>
+        <v>0.1837328012529582</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>7.187533421665592</v>
+        <v>4.512091093311199</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1820850610631197</v>
+        <v>0.1221946714365458</v>
       </c>
       <c r="D2">
-        <v>0.0213911499970223</v>
+        <v>0.007364140351096893</v>
       </c>
       <c r="E2">
-        <v>0.1309150718809882</v>
+        <v>0.1299150751193885</v>
       </c>
       <c r="F2">
-        <v>1.21103156460741</v>
+        <v>1.797698682742748</v>
       </c>
       <c r="G2">
-        <v>0.00241949403477844</v>
+        <v>0.0007488463571939207</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.163511203300033</v>
+        <v>1.542038469277145</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1758153550338051</v>
+        <v>0.2151905644388137</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>4.266805778577407</v>
+        <v>6.043687636112509</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.180673226964899</v>
+        <v>0.1115443333273731</v>
       </c>
       <c r="D3">
-        <v>0.02150530346882995</v>
+        <v>0.007153179242143537</v>
       </c>
       <c r="E3">
-        <v>0.1282938749517548</v>
+        <v>0.1155336962870415</v>
       </c>
       <c r="F3">
-        <v>1.16187534105795</v>
+        <v>1.572264000286552</v>
       </c>
       <c r="G3">
-        <v>0.002424323654527597</v>
+        <v>0.0007561192714633599</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.12408729910365</v>
+        <v>1.353947958768572</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1706748245311402</v>
+        <v>0.1894313576298075</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>4.106082441381545</v>
+        <v>5.293319871489928</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1798937303394439</v>
+        <v>0.1052016344940938</v>
       </c>
       <c r="D4">
-        <v>0.02158405416785669</v>
+        <v>0.007045417021915412</v>
       </c>
       <c r="E4">
-        <v>0.1267606846778939</v>
+        <v>0.1069295122108898</v>
       </c>
       <c r="F4">
-        <v>1.132458981401882</v>
+        <v>1.436777802587358</v>
       </c>
       <c r="G4">
-        <v>0.002427448008595435</v>
+        <v>0.0007607140739666963</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.100605263042169</v>
+        <v>1.241039462566604</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1676285239038577</v>
+        <v>0.1739960993985932</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>4.010087063132914</v>
+        <v>4.842671968718207</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1795980346744983</v>
+        <v>0.1026621333834754</v>
       </c>
       <c r="D5">
-        <v>0.02161831890285981</v>
+        <v>0.00700644092529501</v>
       </c>
       <c r="E5">
-        <v>0.1261550105877767</v>
+        <v>0.1034742172762897</v>
       </c>
       <c r="F5">
-        <v>1.120663222324197</v>
+        <v>1.382217882360393</v>
       </c>
       <c r="G5">
-        <v>0.002428761312759271</v>
+        <v>0.0007626202849564753</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.091217549903931</v>
+        <v>1.195603988297336</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1664146691013144</v>
+        <v>0.1677912841917646</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>3.971641334929245</v>
+        <v>4.661272870876076</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1795502602560788</v>
+        <v>0.1022430631078777</v>
       </c>
       <c r="D6">
-        <v>0.02162413966502186</v>
+        <v>0.007000252650023242</v>
       </c>
       <c r="E6">
-        <v>0.126055591635005</v>
+        <v>0.102903384698152</v>
       </c>
       <c r="F6">
-        <v>1.118716094122945</v>
+        <v>1.373195248739023</v>
       </c>
       <c r="G6">
-        <v>0.002428981812177232</v>
+        <v>0.0007629388869811925</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.089669662163672</v>
+        <v>1.188092204526228</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1662147690242648</v>
+        <v>0.1667658292637242</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>3.96529801887624</v>
+        <v>4.631279118185432</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1798896536076739</v>
+        <v>0.1051672082580239</v>
       </c>
       <c r="D7">
-        <v>0.02158450748133234</v>
+        <v>0.007044872048918904</v>
       </c>
       <c r="E7">
-        <v>0.1267524390294206</v>
+        <v>0.1068827138870034</v>
       </c>
       <c r="F7">
-        <v>1.132299124909693</v>
+        <v>1.436039457203819</v>
       </c>
       <c r="G7">
-        <v>0.002427465557627493</v>
+        <v>0.0007607396432800143</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.100477923543778</v>
+        <v>1.240424465406136</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1676120420978577</v>
+        <v>0.1739120876370279</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>4.009565849089768</v>
+        <v>4.840216841026177</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1815801154143628</v>
+        <v>0.1184789533474628</v>
       </c>
       <c r="D8">
-        <v>0.0214287099896282</v>
+        <v>0.00728654090794123</v>
       </c>
       <c r="E8">
-        <v>0.1299954251434094</v>
+        <v>0.1249057806600682</v>
       </c>
       <c r="F8">
-        <v>1.19392299650508</v>
+        <v>1.719306723032233</v>
       </c>
       <c r="G8">
-        <v>0.002421126380007168</v>
+        <v>0.0007513280569619862</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.149767023358507</v>
+        <v>1.476603510144017</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1740199911302085</v>
+        <v>0.2062230359633475</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209654</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>4.210828249189092</v>
+        <v>5.782685461679023</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1855895181492144</v>
+        <v>0.1463551292827105</v>
       </c>
       <c r="D9">
-        <v>0.02119212000829762</v>
+        <v>0.007960918222558178</v>
       </c>
       <c r="E9">
-        <v>0.1369628760972219</v>
+        <v>0.162334825994094</v>
       </c>
       <c r="F9">
-        <v>1.320892216726264</v>
+        <v>2.30231500565516</v>
       </c>
       <c r="G9">
-        <v>0.00240995025057349</v>
+        <v>0.0007338326811802051</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.252211094437143</v>
+        <v>1.963868294490126</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.187465320791631</v>
+        <v>0.2731385049925876</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
-        <v>4.627008972195881</v>
+        <v>7.725403880218721</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1889607340252581</v>
+        <v>0.1682445860911912</v>
       </c>
       <c r="D10">
-        <v>0.0210606377703364</v>
+        <v>0.008623743031932918</v>
       </c>
       <c r="E10">
-        <v>0.1424575016859322</v>
+        <v>0.19156103387418</v>
       </c>
       <c r="F10">
-        <v>1.417989857857179</v>
+        <v>2.754071484591066</v>
       </c>
       <c r="G10">
-        <v>0.002402495546409715</v>
+        <v>0.0007214648883425712</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.331071227906264</v>
+        <v>2.342255625072639</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1978900075677643</v>
+        <v>0.3252958871493945</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837536</v>
       </c>
       <c r="O10">
-        <v>4.946156478208536</v>
+        <v>9.233059195565943</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1905873037923556</v>
+        <v>0.1785924099426381</v>
       </c>
       <c r="D11">
-        <v>0.02101009120175945</v>
+        <v>0.008973934352624724</v>
       </c>
       <c r="E11">
-        <v>0.1450398561336996</v>
+        <v>0.2053485514075462</v>
       </c>
       <c r="F11">
-        <v>1.463008112900809</v>
+        <v>2.966375538823598</v>
       </c>
       <c r="G11">
-        <v>0.002399266604323518</v>
+        <v>0.0007159187421736055</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.367742183416638</v>
+        <v>2.520282432587834</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2027534419483175</v>
+        <v>0.3498865765709382</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731763</v>
       </c>
       <c r="O11">
-        <v>5.094311143175617</v>
+        <v>9.942205261084837</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.191216647170549</v>
+        <v>0.1825749532335834</v>
       </c>
       <c r="D12">
-        <v>0.02099228925552055</v>
+        <v>0.009114787443067485</v>
       </c>
       <c r="E12">
-        <v>0.1460297154526415</v>
+        <v>0.210651495720164</v>
       </c>
       <c r="F12">
-        <v>1.480178544764243</v>
+        <v>3.047909975747899</v>
       </c>
       <c r="G12">
-        <v>0.00239806707645935</v>
+        <v>0.0007138276755355799</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.381744171662575</v>
+        <v>2.588684294260432</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2046126905016621</v>
+        <v>0.3593430706333436</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>5.15084518216895</v>
+        <v>10.21465030586529</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1910805105778905</v>
+        <v>0.1817142556577096</v>
       </c>
       <c r="D13">
-        <v>0.02099606356556194</v>
+        <v>0.009084063474265491</v>
       </c>
       <c r="E13">
-        <v>0.1458159977282207</v>
+        <v>0.2095055764235525</v>
       </c>
       <c r="F13">
-        <v>1.476475097936799</v>
+        <v>3.03029659080326</v>
       </c>
       <c r="G13">
-        <v>0.002398324386342494</v>
+        <v>0.0007142776585470866</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.378723442314637</v>
+        <v>2.573906424101608</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2042114842439844</v>
+        <v>0.3572996656124587</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>5.138650335089608</v>
+        <v>10.1557910077625</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1906388116128284</v>
+        <v>0.1789187235608551</v>
       </c>
       <c r="D14">
-        <v>0.02100859975131542</v>
+        <v>0.008985349325300263</v>
       </c>
       <c r="E14">
-        <v>0.1451210520098343</v>
+        <v>0.2057831174608609</v>
       </c>
       <c r="F14">
-        <v>1.464418263595377</v>
+        <v>2.97305958596462</v>
       </c>
       <c r="G14">
-        <v>0.00239916745413159</v>
+        <v>0.0007157465403950673</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.368891815708324</v>
+        <v>2.525889253310424</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.202906050452853</v>
+        <v>0.350661545676914</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>5.098953572300616</v>
+        <v>9.964537739902028</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1903700036573781</v>
+        <v>0.1772149727286063</v>
       </c>
       <c r="D15">
-        <v>0.02101645309753053</v>
+        <v>0.008925998124084344</v>
       </c>
       <c r="E15">
-        <v>0.1446969395863604</v>
+        <v>0.2035140251376859</v>
       </c>
       <c r="F15">
-        <v>1.457049153434156</v>
+        <v>2.938153828571529</v>
       </c>
       <c r="G15">
-        <v>0.00239968687528944</v>
+        <v>0.0007166473876875364</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.362884727316214</v>
+        <v>2.496610317726919</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2021087272071327</v>
+        <v>0.3466149753071619</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>5.074694405999821</v>
+        <v>9.847916091758805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1888563071406253</v>
+        <v>0.1675768396506783</v>
       </c>
       <c r="D16">
-        <v>0.02106412810813652</v>
+        <v>0.008601938261012521</v>
       </c>
       <c r="E16">
-        <v>0.142290411126659</v>
+        <v>0.1906708126883032</v>
       </c>
       <c r="F16">
-        <v>1.415064963122234</v>
+        <v>2.740347086129418</v>
       </c>
       <c r="G16">
-        <v>0.002402709819187761</v>
+        <v>0.0007218287563445715</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.328690808459214</v>
+        <v>2.330751293776146</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1975746216708387</v>
+        <v>0.3237078896833339</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>4.936534349568376</v>
+        <v>9.187229683864359</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1879515372129248</v>
+        <v>0.1617694433063406</v>
       </c>
       <c r="D17">
-        <v>0.02109575287444443</v>
+        <v>0.008416425376424286</v>
       </c>
       <c r="E17">
-        <v>0.1408353445562867</v>
+        <v>0.1829254966934073</v>
       </c>
       <c r="F17">
-        <v>1.389526968570152</v>
+        <v>2.620849062303137</v>
       </c>
       <c r="G17">
-        <v>0.002404605759666012</v>
+        <v>0.0007250262579716001</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.307918716518429</v>
+        <v>2.230605883694864</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1948242369593203</v>
+        <v>0.3098900689859221</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>4.852541587904739</v>
+        <v>8.788262572469705</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1874398882641088</v>
+        <v>0.1584653809519665</v>
       </c>
       <c r="D18">
-        <v>0.02111481429403383</v>
+        <v>0.008314218470555801</v>
       </c>
       <c r="E18">
-        <v>0.1400062201814407</v>
+        <v>0.1785161973752878</v>
       </c>
       <c r="F18">
-        <v>1.37491794862629</v>
+        <v>2.552745967623054</v>
       </c>
       <c r="G18">
-        <v>0.002405711533308187</v>
+        <v>0.0007268730664389952</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.296046131035396</v>
+        <v>2.173550598653165</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1932536868446704</v>
+        <v>0.302022393387162</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>4.80451077513834</v>
+        <v>8.560943760071609</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1872681549195505</v>
+        <v>0.1573526731125696</v>
       </c>
       <c r="D19">
-        <v>0.02112141767955933</v>
+        <v>0.008280350404479719</v>
       </c>
       <c r="E19">
-        <v>0.1397268290449105</v>
+        <v>0.1770308005080139</v>
       </c>
       <c r="F19">
-        <v>1.36998525252784</v>
+        <v>2.529790855511209</v>
       </c>
       <c r="G19">
-        <v>0.002406088557027975</v>
+        <v>0.0007274997523132638</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.292039127776562</v>
+        <v>2.154322431309126</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1927238788912575</v>
+        <v>0.2993716918745832</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>4.788296280678196</v>
+        <v>8.484332111775188</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1880469456630607</v>
+        <v>0.162383849762378</v>
       </c>
       <c r="D20">
-        <v>0.02109229610164576</v>
+        <v>0.008435699944261188</v>
       </c>
       <c r="E20">
-        <v>0.1409894320031029</v>
+        <v>0.1837452031964588</v>
       </c>
       <c r="F20">
-        <v>1.392237269412419</v>
+        <v>2.633503622664477</v>
       </c>
       <c r="G20">
-        <v>0.002404402353337351</v>
+        <v>0.0007246850989146564</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.310122175544663</v>
+        <v>2.241209103859703</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1951158393735142</v>
+        <v>0.311352584341293</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003280837</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>4.861453797260253</v>
+        <v>8.830506312656269</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1907681855161485</v>
+        <v>0.1797380326726454</v>
       </c>
       <c r="D21">
-        <v>0.02100488117778099</v>
+        <v>0.009014109365619305</v>
       </c>
       <c r="E21">
-        <v>0.1453248487924981</v>
+        <v>0.2068741751813263</v>
       </c>
       <c r="F21">
-        <v>1.467956301613981</v>
+        <v>2.989839160572103</v>
       </c>
       <c r="G21">
-        <v>0.002398919195752315</v>
+        <v>0.0007153148665192967</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.3717764612813</v>
+        <v>2.539965075730507</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2032890099561371</v>
+        <v>0.3526072249123331</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571254</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>5.110601745461395</v>
+        <v>10.02060264298655</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.192624771782107</v>
+        <v>0.1914577420123607</v>
       </c>
       <c r="D22">
-        <v>0.02095555810053185</v>
+        <v>0.009440920595217506</v>
       </c>
       <c r="E22">
-        <v>0.148228142127941</v>
+        <v>0.222473969934839</v>
       </c>
       <c r="F22">
-        <v>1.518160476400283</v>
+        <v>3.229457891654476</v>
       </c>
       <c r="G22">
-        <v>0.002395470818995049</v>
+        <v>0.000709242821221432</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.412744699467538</v>
+        <v>2.741050387375822</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2087331380031543</v>
+        <v>0.380423385912934</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>5.275948717082031</v>
+        <v>10.82148375525219</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1916267220930337</v>
+        <v>0.1851652578597509</v>
       </c>
       <c r="D23">
-        <v>0.02098116610948608</v>
+        <v>0.009208190413669826</v>
       </c>
       <c r="E23">
-        <v>0.1466721859508979</v>
+        <v>0.2140997521851276</v>
       </c>
       <c r="F23">
-        <v>1.491299570416487</v>
+        <v>3.100893626890013</v>
       </c>
       <c r="G23">
-        <v>0.002397298955384617</v>
+        <v>0.0007124796958497963</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.390817253235113</v>
+        <v>2.633143003878601</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2058180784953976</v>
+        <v>0.3654918291764062</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>5.187468660132538</v>
+        <v>10.39172312882567</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1880037849810066</v>
+        <v>0.1621059691482714</v>
       </c>
       <c r="D24">
-        <v>0.02109385616825676</v>
+        <v>0.008426972152264511</v>
       </c>
       <c r="E24">
-        <v>0.1409197459848599</v>
+        <v>0.1833744789466039</v>
       </c>
       <c r="F24">
-        <v>1.391011714737942</v>
+        <v>2.627780645538934</v>
       </c>
       <c r="G24">
-        <v>0.002404494264198968</v>
+        <v>0.000724839310094663</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.309125775089342</v>
+        <v>2.236413779721545</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1949839726598555</v>
+        <v>0.3106911447611367</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>4.857423784822913</v>
+        <v>8.811401565078597</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1844303053047298</v>
+        <v>0.1385923777539517</v>
       </c>
       <c r="D25">
-        <v>0.02124871243840332</v>
+        <v>0.007752769019827355</v>
       </c>
       <c r="E25">
-        <v>0.1350123955114313</v>
+        <v>0.1519419595302907</v>
       </c>
       <c r="F25">
-        <v>1.285879800927859</v>
+        <v>2.141007658950002</v>
       </c>
       <c r="G25">
-        <v>0.002412840234357405</v>
+        <v>0.0007384724626376203</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.223870829721307</v>
+        <v>1.828918616902456</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1837328012529582</v>
+        <v>0.2545756937443571</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>4.512091093311199</v>
+        <v>7.187533421665592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1221946714365458</v>
+        <v>0.07461686384185384</v>
       </c>
       <c r="D2">
-        <v>0.007364140351096893</v>
+        <v>0.3017194148033155</v>
       </c>
       <c r="E2">
-        <v>0.1299150751193885</v>
+        <v>0.2215211632356358</v>
       </c>
       <c r="F2">
-        <v>1.797698682742748</v>
+        <v>0.5229386793162121</v>
       </c>
       <c r="G2">
-        <v>0.0007488463571939207</v>
+        <v>0.2269308797152334</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0003505285575282624</v>
       </c>
       <c r="I2">
-        <v>1.542038469277145</v>
+        <v>0.005716444577164026</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.232132668400638</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2619782060895588</v>
       </c>
       <c r="L2">
-        <v>0.2151905644388137</v>
+        <v>0.2211253338078905</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.168544444240467</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.043687636112509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9156732394768881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1115443333273731</v>
+        <v>0.06486468650604849</v>
       </c>
       <c r="D3">
-        <v>0.007153179242143537</v>
+        <v>0.2681224149998229</v>
       </c>
       <c r="E3">
-        <v>0.1155336962870415</v>
+        <v>0.19774294286767</v>
       </c>
       <c r="F3">
-        <v>1.572264000286552</v>
+        <v>0.5046878756204194</v>
       </c>
       <c r="G3">
-        <v>0.0007561192714633599</v>
+        <v>0.2244408204871675</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.184061747301236E-05</v>
       </c>
       <c r="I3">
-        <v>1.353947958768572</v>
+        <v>0.003871717811585906</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2362359121178699</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2563358216361955</v>
       </c>
       <c r="L3">
-        <v>0.1894313576298075</v>
+        <v>0.198104289984073</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.508564893714208</v>
       </c>
       <c r="N3">
-        <v>6.749683652115209</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.293319871489928</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.9186686638593926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1052016344940938</v>
+        <v>0.05872827495998934</v>
       </c>
       <c r="D4">
-        <v>0.007045417021915412</v>
+        <v>0.2475516215142903</v>
       </c>
       <c r="E4">
-        <v>0.1069295122108898</v>
+        <v>0.183149660447782</v>
       </c>
       <c r="F4">
-        <v>1.436777802587358</v>
+        <v>0.4940871946934706</v>
       </c>
       <c r="G4">
-        <v>0.0007607140739666963</v>
+        <v>0.22342526606581</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.821338198282341E-05</v>
       </c>
       <c r="I4">
-        <v>1.241039462566604</v>
+        <v>0.002921691418723782</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2390942157516847</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2531445014639608</v>
       </c>
       <c r="L4">
-        <v>0.1739960993985932</v>
+        <v>0.1839461017364528</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>4.102573574229666</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4.842671968718207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.9222980413902349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1026621333834754</v>
+        <v>0.05581284738843095</v>
       </c>
       <c r="D5">
-        <v>0.00700644092529501</v>
+        <v>0.239308729129533</v>
       </c>
       <c r="E5">
-        <v>0.1034742172762897</v>
+        <v>0.1772292244607279</v>
       </c>
       <c r="F5">
-        <v>1.382217882360393</v>
+        <v>0.4895009667224528</v>
       </c>
       <c r="G5">
-        <v>0.0007626202849564753</v>
+        <v>0.2228314154695781</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.41019293905476E-05</v>
       </c>
       <c r="I5">
-        <v>1.195603988297336</v>
+        <v>0.002632290684186245</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2401826765267003</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.251501509122253</v>
       </c>
       <c r="L5">
-        <v>0.1677912841917646</v>
+        <v>0.1781439327643071</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.936887320008282</v>
       </c>
       <c r="N5">
-        <v>5.958052239810399</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4.661272870876076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.9232333007179534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1022430631078777</v>
+        <v>0.05486601234785127</v>
       </c>
       <c r="D6">
-        <v>0.007000252650023242</v>
+        <v>0.2380968251834901</v>
       </c>
       <c r="E6">
-        <v>0.102903384698152</v>
+        <v>0.1762785932100002</v>
       </c>
       <c r="F6">
-        <v>1.373195248739023</v>
+        <v>0.4882456697915458</v>
       </c>
       <c r="G6">
-        <v>0.0007629388869811925</v>
+        <v>0.2223709498731665</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.482395900293426E-05</v>
       </c>
       <c r="I6">
-        <v>1.188092204526228</v>
+        <v>0.002661187162853018</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2401747083351182</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2507347678470779</v>
       </c>
       <c r="L6">
-        <v>0.1667658292637242</v>
+        <v>0.1771495406029331</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.909326889408305</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>4.631279118185432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9222257659717457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1051672082580239</v>
+        <v>0.05742355885073636</v>
       </c>
       <c r="D7">
-        <v>0.007044872048918904</v>
+        <v>0.2478675772956223</v>
       </c>
       <c r="E7">
-        <v>0.1068827138870034</v>
+        <v>0.1831588908618329</v>
       </c>
       <c r="F7">
-        <v>1.436039457203819</v>
+        <v>0.4926531419643965</v>
       </c>
       <c r="G7">
-        <v>0.0007607396432800143</v>
+        <v>0.2224089129467046</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.906446631405601E-05</v>
       </c>
       <c r="I7">
-        <v>1.240424465406136</v>
+        <v>0.003105652301010231</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2385809017952454</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2517611050122177</v>
       </c>
       <c r="L7">
-        <v>0.1739120876370279</v>
+        <v>0.1837848091394392</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>4.100243116078502</v>
       </c>
       <c r="N7">
-        <v>6.184389112219662</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>4.840216841026177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9190662463514627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1184789533474628</v>
+        <v>0.06958869506144083</v>
       </c>
       <c r="D8">
-        <v>0.00728654090794123</v>
+        <v>0.2906906836914231</v>
       </c>
       <c r="E8">
-        <v>0.1249057806600682</v>
+        <v>0.2134391150011155</v>
       </c>
       <c r="F8">
-        <v>1.719306723032233</v>
+        <v>0.5147020498373678</v>
       </c>
       <c r="G8">
-        <v>0.0007513280569619862</v>
+        <v>0.224630142554247</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0001927160646184589</v>
       </c>
       <c r="I8">
-        <v>1.476603510144017</v>
+        <v>0.005260453398030052</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2327822066242149</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.258170743424369</v>
       </c>
       <c r="L8">
-        <v>0.2062230359633475</v>
+        <v>0.2130814473072746</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.940992210567799</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>5.782685461679023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.9120465958775412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1463551292827105</v>
+        <v>0.09455263030704941</v>
       </c>
       <c r="D9">
-        <v>0.007960918222558178</v>
+        <v>0.3744611161790061</v>
       </c>
       <c r="E9">
-        <v>0.162334825994094</v>
+        <v>0.2727949418570432</v>
       </c>
       <c r="F9">
-        <v>2.30231500565516</v>
+        <v>0.5655663625493759</v>
       </c>
       <c r="G9">
-        <v>0.0007338326811802051</v>
+        <v>0.2351902052810502</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002237331922834485</v>
       </c>
       <c r="I9">
-        <v>1.963868294490126</v>
+        <v>0.01080563104133425</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2251809581370878</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2755183863612416</v>
       </c>
       <c r="L9">
-        <v>0.2731385049925876</v>
+        <v>0.2705877916300778</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.585002427928998</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>7.725403880218721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9192687203928074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1682445860911912</v>
+        <v>0.1121912484187817</v>
       </c>
       <c r="D10">
-        <v>0.008623743031932918</v>
+        <v>0.4281409792117756</v>
       </c>
       <c r="E10">
-        <v>0.19156103387418</v>
+        <v>0.3055796055069706</v>
       </c>
       <c r="F10">
-        <v>2.754071484591066</v>
+        <v>0.5953302729462564</v>
       </c>
       <c r="G10">
-        <v>0.0007214648883425712</v>
+        <v>0.2409427940343178</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.004949756646253523</v>
       </c>
       <c r="I10">
-        <v>2.342255625072639</v>
+        <v>0.01606144106392815</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2189208279313206</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2854654223479329</v>
       </c>
       <c r="L10">
-        <v>0.3252958871493945</v>
+        <v>0.2984082140481235</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.790929289902635</v>
       </c>
       <c r="N10">
-        <v>11.28258838837536</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>9.233059195565943</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9188660331634253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1785924099426381</v>
+        <v>0.1241923227816386</v>
       </c>
       <c r="D11">
-        <v>0.008973934352624724</v>
+        <v>0.3809241171777842</v>
       </c>
       <c r="E11">
-        <v>0.2053485514075462</v>
+        <v>0.2318973008855423</v>
       </c>
       <c r="F11">
-        <v>2.966375538823598</v>
+        <v>0.518660857677304</v>
       </c>
       <c r="G11">
-        <v>0.0007159187421736055</v>
+        <v>0.2039105263726881</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02341130014378123</v>
       </c>
       <c r="I11">
-        <v>2.520282432587834</v>
+        <v>0.01828170439739907</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1960092908221327</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2561675896165134</v>
       </c>
       <c r="L11">
-        <v>0.3498865765709382</v>
+        <v>0.2003528977725679</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.33297300765912</v>
       </c>
       <c r="N11">
-        <v>12.03742316731763</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>9.942205261084837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.7925652780109118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1825749532335834</v>
+        <v>0.1332190037592227</v>
       </c>
       <c r="D12">
-        <v>0.009114787443067485</v>
+        <v>0.3318256286296588</v>
       </c>
       <c r="E12">
-        <v>0.210651495720164</v>
+        <v>0.1726258274642767</v>
       </c>
       <c r="F12">
-        <v>3.047909975747899</v>
+        <v>0.4534955559781935</v>
       </c>
       <c r="G12">
-        <v>0.0007138276755355799</v>
+        <v>0.1747720581597534</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06171257505218364</v>
       </c>
       <c r="I12">
-        <v>2.588684294260432</v>
+        <v>0.01871052374997006</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1794941721671748</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2322498581407331</v>
       </c>
       <c r="L12">
-        <v>0.3593430706333436</v>
+        <v>0.1320584914471894</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.535819073347511</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.21465030586529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.6962633199414512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1817142556577096</v>
+        <v>0.1383679120250747</v>
       </c>
       <c r="D13">
-        <v>0.009084063474265491</v>
+        <v>0.2794130258097596</v>
       </c>
       <c r="E13">
-        <v>0.2095055764235525</v>
+        <v>0.1214046615259896</v>
       </c>
       <c r="F13">
-        <v>3.03029659080326</v>
+        <v>0.391265384629655</v>
       </c>
       <c r="G13">
-        <v>0.0007142776585470866</v>
+        <v>0.148279716609963</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1168322132815405</v>
       </c>
       <c r="I13">
-        <v>2.573906424101608</v>
+        <v>0.01800709116414545</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.166005907999903</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2088760388757187</v>
       </c>
       <c r="L13">
-        <v>0.3572996656124587</v>
+        <v>0.08270438381753564</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.487126634456047</v>
       </c>
       <c r="N13">
-        <v>12.26155457991871</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>10.1557910077625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6118106464501807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1789187235608551</v>
+        <v>0.1397900229093807</v>
       </c>
       <c r="D14">
-        <v>0.008985349325300263</v>
+        <v>0.242054415500121</v>
       </c>
       <c r="E14">
-        <v>0.2057831174608609</v>
+        <v>0.09084094500797235</v>
       </c>
       <c r="F14">
-        <v>2.97305958596462</v>
+        <v>0.3496292448344107</v>
       </c>
       <c r="G14">
-        <v>0.0007157465403950673</v>
+        <v>0.131128633234006</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1656598459564833</v>
       </c>
       <c r="I14">
-        <v>2.525889253310424</v>
+        <v>0.0170888764319086</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1579912916620643</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1926879422845325</v>
       </c>
       <c r="L14">
-        <v>0.350661545676914</v>
+        <v>0.05962615749544931</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.339017613244607</v>
       </c>
       <c r="N14">
-        <v>12.06092695796548</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.964537739902028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5585909433193592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1772149727286063</v>
+        <v>0.1386322398700202</v>
       </c>
       <c r="D15">
-        <v>0.008925998124084344</v>
+        <v>0.2321041363785241</v>
       </c>
       <c r="E15">
-        <v>0.2035140251376859</v>
+        <v>0.0839043810790443</v>
       </c>
       <c r="F15">
-        <v>2.938153828571529</v>
+        <v>0.3393384134963782</v>
       </c>
       <c r="G15">
-        <v>0.0007166473876875364</v>
+        <v>0.1270435461950328</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1779481402439416</v>
       </c>
       <c r="I15">
-        <v>2.496610317726919</v>
+        <v>0.01671501498362105</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1564603323476135</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1883803535655275</v>
       </c>
       <c r="L15">
-        <v>0.3466149753071619</v>
+        <v>0.05545056375677326</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.249232185588937</v>
       </c>
       <c r="N15">
-        <v>11.93801081193834</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>9.847916091758805</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.546683682465229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1675768396506783</v>
+        <v>0.1289663770478171</v>
       </c>
       <c r="D16">
-        <v>0.008601938261012521</v>
+        <v>0.2213445461830048</v>
       </c>
       <c r="E16">
-        <v>0.1906708126883032</v>
+        <v>0.08179101187556626</v>
       </c>
       <c r="F16">
-        <v>2.740347086129418</v>
+        <v>0.3390309138555736</v>
       </c>
       <c r="G16">
-        <v>0.0007218287563445715</v>
+        <v>0.1291831782575841</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1641609964938482</v>
       </c>
       <c r="I16">
-        <v>2.330751293776146</v>
+        <v>0.01458760176957519</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1613371708631774</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.18809646934535</v>
       </c>
       <c r="L16">
-        <v>0.3237078896833339</v>
+        <v>0.05504049248961884</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.738270442392547</v>
       </c>
       <c r="N16">
-        <v>11.23323027560713</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>9.187229683864359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5612207529065927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1617694433063406</v>
+        <v>0.12077033891822</v>
       </c>
       <c r="D17">
-        <v>0.008416425376424286</v>
+        <v>0.2324568403199265</v>
       </c>
       <c r="E17">
-        <v>0.1829254966934073</v>
+        <v>0.0952503117096839</v>
       </c>
       <c r="F17">
-        <v>2.620849062303137</v>
+        <v>0.3604527770490833</v>
       </c>
       <c r="G17">
-        <v>0.0007250262579716001</v>
+        <v>0.1397987924180129</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1258617541583504</v>
       </c>
       <c r="I17">
-        <v>2.230605883694864</v>
+        <v>0.0134913732543076</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1693152343533839</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1963626516123504</v>
       </c>
       <c r="L17">
-        <v>0.3098900689859221</v>
+        <v>0.06491699626694825</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.426054149815741</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.788262572469705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6003109550419197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1584653809519665</v>
+        <v>0.114304361004443</v>
       </c>
       <c r="D18">
-        <v>0.008314218470555801</v>
+        <v>0.2649731392677097</v>
       </c>
       <c r="E18">
-        <v>0.1785161973752878</v>
+        <v>0.128693275644185</v>
       </c>
       <c r="F18">
-        <v>2.552745967623054</v>
+        <v>0.405889516649836</v>
       </c>
       <c r="G18">
-        <v>0.0007268730664389952</v>
+        <v>0.1604323124488474</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07298525651888355</v>
       </c>
       <c r="I18">
-        <v>2.173550598653165</v>
+        <v>0.01288353229147265</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1815544927221993</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2142839896924684</v>
       </c>
       <c r="L18">
-        <v>0.302022393387162</v>
+        <v>0.09481656534328664</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.248480000487916</v>
       </c>
       <c r="N18">
-        <v>10.5514994903329</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>8.560943760071609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6696299596913917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1573526731125696</v>
+        <v>0.1072759146298097</v>
       </c>
       <c r="D19">
-        <v>0.008280350404479719</v>
+        <v>0.3157257471694095</v>
       </c>
       <c r="E19">
-        <v>0.1770308005080139</v>
+        <v>0.1837650193053761</v>
       </c>
       <c r="F19">
-        <v>2.529790855511209</v>
+        <v>0.4689174671374019</v>
       </c>
       <c r="G19">
-        <v>0.0007274997523132638</v>
+        <v>0.1878938590798569</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02821180736143702</v>
       </c>
       <c r="I19">
-        <v>2.154322431309126</v>
+        <v>0.01316259537868714</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1962961856108763</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2374706225427623</v>
       </c>
       <c r="L19">
-        <v>0.2993716918745832</v>
+        <v>0.1537575536905038</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.191353654114948</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>8.484332111775188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7587232308876821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.162383849762378</v>
+        <v>0.1035791997977924</v>
       </c>
       <c r="D20">
-        <v>0.008435699944261188</v>
+        <v>0.4150113192283982</v>
       </c>
       <c r="E20">
-        <v>0.1837452031964588</v>
+        <v>0.2967799326266984</v>
       </c>
       <c r="F20">
-        <v>2.633503622664477</v>
+        <v>0.5825731630556348</v>
       </c>
       <c r="G20">
-        <v>0.0007246850989146564</v>
+        <v>0.235908936950544</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004112134079777618</v>
       </c>
       <c r="I20">
-        <v>2.241209103859703</v>
+        <v>0.01517819037997636</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2187303259517748</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2783554943264157</v>
       </c>
       <c r="L20">
-        <v>0.311352584341293</v>
+        <v>0.290235222250999</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.473897889350667</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>8.830506312656269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9076615781267208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1797380326726454</v>
+        <v>0.1166617830032948</v>
       </c>
       <c r="D21">
-        <v>0.009014109365619305</v>
+        <v>0.4693920092212522</v>
       </c>
       <c r="E21">
-        <v>0.2068741751813263</v>
+        <v>0.3391121240766708</v>
       </c>
       <c r="F21">
-        <v>2.989839160572103</v>
+        <v>0.6240664392250181</v>
       </c>
       <c r="G21">
-        <v>0.0007153148665192967</v>
+        <v>0.2493621947055118</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.00666724096029625</v>
       </c>
       <c r="I21">
-        <v>2.539965075730507</v>
+        <v>0.01965072930548128</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2186031537111361</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2933650436616446</v>
       </c>
       <c r="L21">
-        <v>0.3526072249123331</v>
+        <v>0.3340673205532596</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.400616966213988</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>10.02060264298655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9363050716789587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1914577420123607</v>
+        <v>0.1271025342324066</v>
       </c>
       <c r="D22">
-        <v>0.009440920595217506</v>
+        <v>0.5001393894316095</v>
       </c>
       <c r="E22">
-        <v>0.222473969934839</v>
+        <v>0.3610985825767585</v>
       </c>
       <c r="F22">
-        <v>3.229457891654476</v>
+        <v>0.6484141126985321</v>
       </c>
       <c r="G22">
-        <v>0.000709242821221432</v>
+        <v>0.2578121521877392</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.008612397519730267</v>
       </c>
       <c r="I22">
-        <v>2.741050387375822</v>
+        <v>0.02257955373628651</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.218407285375406</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.303400662979378</v>
       </c>
       <c r="L22">
-        <v>0.380423385912934</v>
+        <v>0.3555180347328672</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.006518399772801</v>
       </c>
       <c r="N22">
-        <v>12.95085643057962</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>10.82148375525219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9540544826478765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1851652578597509</v>
+        <v>0.1230787974281355</v>
       </c>
       <c r="D23">
-        <v>0.009208190413669826</v>
+        <v>0.4831981729666097</v>
       </c>
       <c r="E23">
-        <v>0.2140997521851276</v>
+        <v>0.3492468267415418</v>
       </c>
       <c r="F23">
-        <v>3.100893626890013</v>
+        <v>0.6369480900302165</v>
       </c>
       <c r="G23">
-        <v>0.0007124796958497963</v>
+        <v>0.254407868239511</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.007554968352054353</v>
       </c>
       <c r="I23">
-        <v>2.633143003878601</v>
+        <v>0.02076548639061482</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2190751900787191</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2996095835512307</v>
       </c>
       <c r="L23">
-        <v>0.3654918291764062</v>
+        <v>0.3441617987964918</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.683232379007904</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>10.39172312882567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9481060181428234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1621059691482714</v>
+        <v>0.1051715809741722</v>
       </c>
       <c r="D24">
-        <v>0.008426972152264511</v>
+        <v>0.4201294884429387</v>
       </c>
       <c r="E24">
-        <v>0.1833744789466039</v>
+        <v>0.3046936852086759</v>
       </c>
       <c r="F24">
-        <v>2.627780645538934</v>
+        <v>0.592759860922385</v>
       </c>
       <c r="G24">
-        <v>0.000724839310094663</v>
+        <v>0.2411874196418182</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.004108419725826096</v>
       </c>
       <c r="I24">
-        <v>2.236413779721545</v>
+        <v>0.01480079302493476</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2215297350045731</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.283560924953818</v>
       </c>
       <c r="L24">
-        <v>0.3106911447611367</v>
+        <v>0.3011201365550278</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.459573239896997</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>8.811401565078597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9247125632180513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1385923777539517</v>
+        <v>0.08559551337779681</v>
       </c>
       <c r="D25">
-        <v>0.007752769019827355</v>
+        <v>0.3525064306303705</v>
       </c>
       <c r="E25">
-        <v>0.1519419595302907</v>
+        <v>0.25687492170713</v>
       </c>
       <c r="F25">
-        <v>2.141007658950002</v>
+        <v>0.5487248807884342</v>
       </c>
       <c r="G25">
-        <v>0.0007384724626376203</v>
+        <v>0.230002318207795</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001477395739636567</v>
       </c>
       <c r="I25">
-        <v>1.828918616902456</v>
+        <v>0.009432534812665594</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2259755970138997</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2680903748019219</v>
       </c>
       <c r="L25">
-        <v>0.2545756937443571</v>
+        <v>0.2548768579778056</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.140391637742084</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>7.187533421665592</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9097361663488925</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07461686384185384</v>
+        <v>0.04933219666602895</v>
       </c>
       <c r="D2">
-        <v>0.3017194148033155</v>
+        <v>0.3102503070365401</v>
       </c>
       <c r="E2">
-        <v>0.2215211632356358</v>
+        <v>0.2231833712293465</v>
       </c>
       <c r="F2">
-        <v>0.5229386793162121</v>
+        <v>0.4965707599485398</v>
       </c>
       <c r="G2">
-        <v>0.2269308797152334</v>
+        <v>0.1909796832814834</v>
       </c>
       <c r="H2">
-        <v>0.0003505285575282624</v>
+        <v>0.0003047148389923038</v>
       </c>
       <c r="I2">
-        <v>0.005716444577164026</v>
+        <v>0.005668467541330102</v>
       </c>
       <c r="J2">
-        <v>0.232132668400638</v>
+        <v>0.2572599344600377</v>
       </c>
       <c r="K2">
-        <v>0.2619782060895588</v>
+        <v>0.2341206970286542</v>
       </c>
       <c r="L2">
-        <v>0.2211253338078905</v>
+        <v>0.1434345827239767</v>
       </c>
       <c r="M2">
-        <v>5.168544444240467</v>
+        <v>0.04944100143249663</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2192973071553297</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5.16562832973591</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9156732394768881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8553284173618749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06486468650604849</v>
+        <v>0.04403667055996863</v>
       </c>
       <c r="D3">
-        <v>0.2681224149998229</v>
+        <v>0.2752128513464527</v>
       </c>
       <c r="E3">
-        <v>0.19774294286767</v>
+        <v>0.1992771538204252</v>
       </c>
       <c r="F3">
-        <v>0.5046878756204194</v>
+        <v>0.4825158599651829</v>
       </c>
       <c r="G3">
-        <v>0.2244408204871675</v>
+        <v>0.1916924099530206</v>
       </c>
       <c r="H3">
-        <v>2.184061747301236E-05</v>
+        <v>1.672011788045324E-05</v>
       </c>
       <c r="I3">
-        <v>0.003871717811585906</v>
+        <v>0.004059693029851985</v>
       </c>
       <c r="J3">
-        <v>0.2362359121178699</v>
+        <v>0.260518464342482</v>
       </c>
       <c r="K3">
-        <v>0.2563358216361955</v>
+        <v>0.232067943402761</v>
       </c>
       <c r="L3">
-        <v>0.198104289984073</v>
+        <v>0.1475853491554737</v>
       </c>
       <c r="M3">
-        <v>4.508564893714208</v>
+        <v>0.04457532779435525</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1968400403367596</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.507341205856562</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9186686638593926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8665908704963243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05872827495998934</v>
+        <v>0.04064323454662855</v>
       </c>
       <c r="D4">
-        <v>0.2475516215142903</v>
+        <v>0.2537823651778126</v>
       </c>
       <c r="E4">
-        <v>0.183149660447782</v>
+        <v>0.1846090046044537</v>
       </c>
       <c r="F4">
-        <v>0.4940871946934706</v>
+        <v>0.4743764164691342</v>
       </c>
       <c r="G4">
-        <v>0.22342526606581</v>
+        <v>0.1926456509738799</v>
       </c>
       <c r="H4">
-        <v>1.821338198282341E-05</v>
+        <v>1.955516791207756E-05</v>
       </c>
       <c r="I4">
-        <v>0.002921691418723782</v>
+        <v>0.00321533016476705</v>
       </c>
       <c r="J4">
-        <v>0.2390942157516847</v>
+        <v>0.2626849010876882</v>
       </c>
       <c r="K4">
-        <v>0.2531445014639608</v>
+        <v>0.2309630132964813</v>
       </c>
       <c r="L4">
-        <v>0.1839461017364528</v>
+        <v>0.1501921843611846</v>
       </c>
       <c r="M4">
-        <v>4.102573574229666</v>
+        <v>0.04215299909645687</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1830213778927643</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.10228758963774</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9222980413902349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.874977418934364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05581284738843095</v>
+        <v>0.03891240985009858</v>
       </c>
       <c r="D5">
-        <v>0.239308729129533</v>
+        <v>0.2451944167908096</v>
       </c>
       <c r="E5">
-        <v>0.1772292244607279</v>
+        <v>0.1786589413566517</v>
       </c>
       <c r="F5">
-        <v>0.4895009667224528</v>
+        <v>0.4707873557919271</v>
       </c>
       <c r="G5">
-        <v>0.2228314154695781</v>
+        <v>0.1928826508667711</v>
       </c>
       <c r="H5">
-        <v>6.41019293905476E-05</v>
+        <v>6.370631665575388E-05</v>
       </c>
       <c r="I5">
-        <v>0.002632290684186245</v>
+        <v>0.00297245611263719</v>
       </c>
       <c r="J5">
-        <v>0.2401826765267003</v>
+        <v>0.2634530913940907</v>
       </c>
       <c r="K5">
-        <v>0.251501509122253</v>
+        <v>0.2301807457854714</v>
       </c>
       <c r="L5">
-        <v>0.1781439327643071</v>
+        <v>0.1510815306733235</v>
       </c>
       <c r="M5">
-        <v>3.936887320008282</v>
+        <v>0.04121315824424343</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1773570785132534</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3.936963455513364</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9232333007179534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.877848766304183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05486601234785127</v>
+        <v>0.03824354631272087</v>
       </c>
       <c r="D6">
-        <v>0.2380968251834901</v>
+        <v>0.2439242885056103</v>
       </c>
       <c r="E6">
-        <v>0.1762785932100002</v>
+        <v>0.1777031740741215</v>
       </c>
       <c r="F6">
-        <v>0.4882456697915458</v>
+        <v>0.4697229952563191</v>
       </c>
       <c r="G6">
-        <v>0.2223709498731665</v>
+        <v>0.1925949925900028</v>
       </c>
       <c r="H6">
-        <v>7.482395900293426E-05</v>
+        <v>7.385999997455706E-05</v>
       </c>
       <c r="I6">
-        <v>0.002661187162853018</v>
+        <v>0.003025517951479095</v>
       </c>
       <c r="J6">
-        <v>0.2401747083351182</v>
+        <v>0.26339381514682</v>
       </c>
       <c r="K6">
-        <v>0.2507347678470779</v>
+        <v>0.2296032289731649</v>
       </c>
       <c r="L6">
-        <v>0.1771495406029331</v>
+        <v>0.1510019301781114</v>
       </c>
       <c r="M6">
-        <v>3.909326889408305</v>
+        <v>0.04095123744428264</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1763866414162365</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>3.909464262733536</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9222257659717457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8772494105730573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05742355885073636</v>
+        <v>0.03970866419558661</v>
       </c>
       <c r="D7">
-        <v>0.2478675772956223</v>
+        <v>0.2543479885049607</v>
       </c>
       <c r="E7">
-        <v>0.1831588908618329</v>
+        <v>0.1846702457530753</v>
       </c>
       <c r="F7">
-        <v>0.4926531419643965</v>
+        <v>0.4722469959057065</v>
       </c>
       <c r="G7">
-        <v>0.2224089129467046</v>
+        <v>0.1934903080198396</v>
       </c>
       <c r="H7">
-        <v>1.906446631405601E-05</v>
+        <v>2.06481458289165E-05</v>
       </c>
       <c r="I7">
-        <v>0.003105652301010231</v>
+        <v>0.003440095325784931</v>
       </c>
       <c r="J7">
-        <v>0.2385809017952454</v>
+        <v>0.2594144642676</v>
       </c>
       <c r="K7">
-        <v>0.2517611050122177</v>
+        <v>0.2293031739693099</v>
       </c>
       <c r="L7">
-        <v>0.1837848091394392</v>
+        <v>0.1493906460609367</v>
       </c>
       <c r="M7">
-        <v>4.100243116078502</v>
+        <v>0.04169818655052993</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1828157338241141</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4.099910721689923</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9190662463514627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8702294362888239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06958869506144083</v>
+        <v>0.04658689027677099</v>
       </c>
       <c r="D8">
-        <v>0.2906906836914231</v>
+        <v>0.299581725554944</v>
       </c>
       <c r="E8">
-        <v>0.2134391150011155</v>
+        <v>0.2152356639778858</v>
       </c>
       <c r="F8">
-        <v>0.5147020498373678</v>
+        <v>0.4873231074093098</v>
       </c>
       <c r="G8">
-        <v>0.224630142554247</v>
+        <v>0.1957980744856229</v>
       </c>
       <c r="H8">
-        <v>0.0001927160646184589</v>
+        <v>0.0001629267600862239</v>
       </c>
       <c r="I8">
-        <v>0.005260453398030052</v>
+        <v>0.005343196132305827</v>
       </c>
       <c r="J8">
-        <v>0.2327822066242149</v>
+        <v>0.2487807318811335</v>
       </c>
       <c r="K8">
-        <v>0.258170743424369</v>
+        <v>0.2303877322402563</v>
       </c>
       <c r="L8">
-        <v>0.2130814473072746</v>
+        <v>0.1435057014798709</v>
       </c>
       <c r="M8">
-        <v>4.940992210567799</v>
+        <v>0.04671737139460674</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2112911597375415</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>4.938496418394607</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9120465958775412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8490976231378085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09455263030704941</v>
+        <v>0.06035230161045746</v>
       </c>
       <c r="D9">
-        <v>0.3744611161790061</v>
+        <v>0.3873359732460102</v>
       </c>
       <c r="E9">
-        <v>0.2727949418570432</v>
+        <v>0.2749790021903848</v>
       </c>
       <c r="F9">
-        <v>0.5655663625493759</v>
+        <v>0.5262403004405769</v>
       </c>
       <c r="G9">
-        <v>0.2351902052810502</v>
+        <v>0.1999188652460191</v>
       </c>
       <c r="H9">
-        <v>0.002237331922834485</v>
+        <v>0.001982189314344018</v>
       </c>
       <c r="I9">
-        <v>0.01080563104133425</v>
+        <v>0.009989154602714656</v>
       </c>
       <c r="J9">
-        <v>0.2251809581370878</v>
+        <v>0.2398509579215968</v>
       </c>
       <c r="K9">
-        <v>0.2755183863612416</v>
+        <v>0.2375672543982255</v>
       </c>
       <c r="L9">
-        <v>0.2705877916300778</v>
+        <v>0.1341499301236198</v>
       </c>
       <c r="M9">
-        <v>6.585002427928998</v>
+        <v>0.0622261683863421</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2672952159916804</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>6.577474501936194</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9192687203928074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8319446550971321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1121912484187817</v>
+        <v>0.07090676865600187</v>
       </c>
       <c r="D10">
-        <v>0.4281409792117756</v>
+        <v>0.4452916709210513</v>
       </c>
       <c r="E10">
-        <v>0.3055796055069706</v>
+        <v>0.3082818832791503</v>
       </c>
       <c r="F10">
-        <v>0.5953302729462564</v>
+        <v>0.5431645175301085</v>
       </c>
       <c r="G10">
-        <v>0.2409427940343178</v>
+        <v>0.212296892855754</v>
       </c>
       <c r="H10">
-        <v>0.004949756646253523</v>
+        <v>0.004406297412240967</v>
       </c>
       <c r="I10">
-        <v>0.01606144106392815</v>
+        <v>0.01432828711933887</v>
       </c>
       <c r="J10">
-        <v>0.2189208279313206</v>
+        <v>0.2180877169576405</v>
       </c>
       <c r="K10">
-        <v>0.2854654223479329</v>
+        <v>0.2379685655121406</v>
       </c>
       <c r="L10">
-        <v>0.2984082140481235</v>
+        <v>0.1255073396582809</v>
       </c>
       <c r="M10">
-        <v>7.790929289902635</v>
+        <v>0.07411667327234994</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2938032563736499</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>7.778563020383331</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9188660331634253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8043643366817861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1241923227816386</v>
+        <v>0.08310588721347756</v>
       </c>
       <c r="D11">
-        <v>0.3809241171777842</v>
+        <v>0.3996835601294322</v>
       </c>
       <c r="E11">
-        <v>0.2318973008855423</v>
+        <v>0.2344528025071426</v>
       </c>
       <c r="F11">
-        <v>0.518660857677304</v>
+        <v>0.4631754854714387</v>
       </c>
       <c r="G11">
-        <v>0.2039105263726881</v>
+        <v>0.2002499223148817</v>
       </c>
       <c r="H11">
-        <v>0.02341130014378123</v>
+        <v>0.02280134080079321</v>
       </c>
       <c r="I11">
-        <v>0.01828170439739907</v>
+        <v>0.01624253217353289</v>
       </c>
       <c r="J11">
-        <v>0.1960092908221327</v>
+        <v>0.1776688544740495</v>
       </c>
       <c r="K11">
-        <v>0.2561675896165134</v>
+        <v>0.2083415574811411</v>
       </c>
       <c r="L11">
-        <v>0.2003528977725679</v>
+        <v>0.1115221614390549</v>
       </c>
       <c r="M11">
-        <v>8.33297300765912</v>
+        <v>0.06733818638952016</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1959017772799854</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>8.318279293618673</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.7925652780109118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.6728201138826648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1332190037592227</v>
+        <v>0.09318315791067278</v>
       </c>
       <c r="D12">
-        <v>0.3318256286296588</v>
+        <v>0.349900127288933</v>
       </c>
       <c r="E12">
-        <v>0.1726258274642767</v>
+        <v>0.1746695743181625</v>
       </c>
       <c r="F12">
-        <v>0.4534955559781935</v>
+        <v>0.4010830086620842</v>
       </c>
       <c r="G12">
-        <v>0.1747720581597534</v>
+        <v>0.1821926045607754</v>
       </c>
       <c r="H12">
-        <v>0.06171257505218364</v>
+        <v>0.06110930825126104</v>
       </c>
       <c r="I12">
-        <v>0.01871052374997006</v>
+        <v>0.01655802524610284</v>
       </c>
       <c r="J12">
-        <v>0.1794941721671748</v>
+        <v>0.1614564817656721</v>
       </c>
       <c r="K12">
-        <v>0.2322498581407331</v>
+        <v>0.187485787184908</v>
       </c>
       <c r="L12">
-        <v>0.1320584914471894</v>
+        <v>0.1032699867303464</v>
       </c>
       <c r="M12">
-        <v>8.535819073347511</v>
+        <v>0.06045174253631203</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1282301342109804</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>8.520439514777706</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.6962633199414512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.5847436980361351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1383679120250747</v>
+        <v>0.1001677996058561</v>
       </c>
       <c r="D13">
-        <v>0.2794130258097596</v>
+        <v>0.2946879267387601</v>
       </c>
       <c r="E13">
-        <v>0.1214046615259896</v>
+        <v>0.1226505358705374</v>
       </c>
       <c r="F13">
-        <v>0.391265384629655</v>
+        <v>0.3477239189699759</v>
       </c>
       <c r="G13">
-        <v>0.148279716609963</v>
+        <v>0.1536973005068276</v>
       </c>
       <c r="H13">
-        <v>0.1168322132815405</v>
+        <v>0.1162967488076276</v>
       </c>
       <c r="I13">
-        <v>0.01800709116414545</v>
+        <v>0.01599103748017683</v>
       </c>
       <c r="J13">
-        <v>0.166005907999903</v>
+        <v>0.1577674962625952</v>
       </c>
       <c r="K13">
-        <v>0.2088760388757187</v>
+        <v>0.1706793466905125</v>
       </c>
       <c r="L13">
-        <v>0.08270438381753564</v>
+        <v>0.09793641213633109</v>
       </c>
       <c r="M13">
-        <v>8.487126634456047</v>
+        <v>0.05280320572613562</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07980550247908269</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8.472489739571301</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6118106464501807</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.520759998893098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1397900229093807</v>
+        <v>0.1033188503584626</v>
       </c>
       <c r="D14">
-        <v>0.242054415500121</v>
+        <v>0.2546495882243391</v>
       </c>
       <c r="E14">
-        <v>0.09084094500797235</v>
+        <v>0.09148806047813807</v>
       </c>
       <c r="F14">
-        <v>0.3496292448344107</v>
+        <v>0.3141963943388291</v>
       </c>
       <c r="G14">
-        <v>0.131128633234006</v>
+        <v>0.1307146146573643</v>
       </c>
       <c r="H14">
-        <v>0.1656598459564833</v>
+        <v>0.1651928553082485</v>
       </c>
       <c r="I14">
-        <v>0.0170888764319086</v>
+        <v>0.01528989705199635</v>
       </c>
       <c r="J14">
-        <v>0.1579912916620643</v>
+        <v>0.1589302292104531</v>
       </c>
       <c r="K14">
-        <v>0.1926879422845325</v>
+        <v>0.1603694312584274</v>
       </c>
       <c r="L14">
-        <v>0.05962615749544931</v>
+        <v>0.09524379958623186</v>
       </c>
       <c r="M14">
-        <v>8.339017613244607</v>
+        <v>0.04710760746316112</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05741872575579343</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8.325515096552238</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.5585909433193592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4857604984335424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1386322398700202</v>
+        <v>0.1028263162068868</v>
       </c>
       <c r="D15">
-        <v>0.2321041363785241</v>
+        <v>0.243733317635531</v>
       </c>
       <c r="E15">
-        <v>0.0839043810790443</v>
+        <v>0.08438920349210832</v>
       </c>
       <c r="F15">
-        <v>0.3393384134963782</v>
+        <v>0.3067516171485209</v>
       </c>
       <c r="G15">
-        <v>0.1270435461950328</v>
+        <v>0.1235373765237853</v>
       </c>
       <c r="H15">
-        <v>0.1779481402439416</v>
+        <v>0.1775115281791244</v>
       </c>
       <c r="I15">
-        <v>0.01671501498362105</v>
+        <v>0.01504310472255987</v>
       </c>
       <c r="J15">
-        <v>0.1564603323476135</v>
+        <v>0.1608001079311059</v>
       </c>
       <c r="K15">
-        <v>0.1883803535655275</v>
+        <v>0.1581248194489362</v>
       </c>
       <c r="L15">
-        <v>0.05545056375677326</v>
+        <v>0.09492534688290277</v>
       </c>
       <c r="M15">
-        <v>8.249232185588937</v>
+        <v>0.04539671173803583</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05343969565674733</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>8.236297100624938</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.546683682465229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4801300995933389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1289663770478171</v>
+        <v>0.09474419765753339</v>
       </c>
       <c r="D16">
-        <v>0.2213445461830048</v>
+        <v>0.2301569476515937</v>
       </c>
       <c r="E16">
-        <v>0.08179101187556626</v>
+        <v>0.08207566678877853</v>
       </c>
       <c r="F16">
-        <v>0.3390309138555736</v>
+        <v>0.3141330027630787</v>
       </c>
       <c r="G16">
-        <v>0.1291831782575841</v>
+        <v>0.1118170620317827</v>
       </c>
       <c r="H16">
-        <v>0.1641609964938482</v>
+        <v>0.163856543718822</v>
       </c>
       <c r="I16">
-        <v>0.01458760176957519</v>
+        <v>0.01340393296087683</v>
       </c>
       <c r="J16">
-        <v>0.1613371708631774</v>
+        <v>0.1782560761367726</v>
       </c>
       <c r="K16">
-        <v>0.18809646934535</v>
+        <v>0.1630034717580777</v>
       </c>
       <c r="L16">
-        <v>0.05504049248961884</v>
+        <v>0.09910898572003113</v>
       </c>
       <c r="M16">
-        <v>7.738270442392547</v>
+        <v>0.04323237877558839</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05338490119129347</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>7.727952895158865</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5612207529065927</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5105892942245305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.12077033891822</v>
+        <v>0.08710718698986852</v>
       </c>
       <c r="D17">
-        <v>0.2324568403199265</v>
+        <v>0.2406423784613878</v>
       </c>
       <c r="E17">
-        <v>0.0952503117096839</v>
+        <v>0.09564979965322351</v>
       </c>
       <c r="F17">
-        <v>0.3604527770490833</v>
+        <v>0.337008372271363</v>
       </c>
       <c r="G17">
-        <v>0.1397987924180129</v>
+        <v>0.1158568727226879</v>
       </c>
       <c r="H17">
-        <v>0.1258617541583504</v>
+        <v>0.1256159931175063</v>
       </c>
       <c r="I17">
-        <v>0.0134913732543076</v>
+        <v>0.01255223297663477</v>
       </c>
       <c r="J17">
-        <v>0.1693152343533839</v>
+        <v>0.1921228560059198</v>
       </c>
       <c r="K17">
-        <v>0.1963626516123504</v>
+        <v>0.1719414999990043</v>
       </c>
       <c r="L17">
-        <v>0.06491699626694825</v>
+        <v>0.103914256108494</v>
       </c>
       <c r="M17">
-        <v>7.426054149815741</v>
+        <v>0.04431874030620087</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06324442365523097</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>7.417015633330948</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6003109550419197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5521141167956145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.114304361004443</v>
+        <v>0.07992666295380957</v>
       </c>
       <c r="D18">
-        <v>0.2649731392677097</v>
+        <v>0.2738706805498623</v>
       </c>
       <c r="E18">
-        <v>0.128693275644185</v>
+        <v>0.1294327813197675</v>
       </c>
       <c r="F18">
-        <v>0.405889516649836</v>
+        <v>0.3798489008951833</v>
       </c>
       <c r="G18">
-        <v>0.1604323124488474</v>
+        <v>0.1313293464457175</v>
       </c>
       <c r="H18">
-        <v>0.07298525651888355</v>
+        <v>0.07275036006783608</v>
       </c>
       <c r="I18">
-        <v>0.01288353229147265</v>
+        <v>0.01198219786073196</v>
       </c>
       <c r="J18">
-        <v>0.1815544927221993</v>
+        <v>0.2060767028274739</v>
       </c>
       <c r="K18">
-        <v>0.2142839896924684</v>
+        <v>0.1872978432152479</v>
       </c>
       <c r="L18">
-        <v>0.09481656534328664</v>
+        <v>0.1105511072980558</v>
       </c>
       <c r="M18">
-        <v>7.248480000487916</v>
+        <v>0.04889809762346786</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09282682314948687</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>7.239894928747731</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.6696299596913917</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6148297545540515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1072759146298097</v>
+        <v>0.07174266017273112</v>
       </c>
       <c r="D19">
-        <v>0.3157257471694095</v>
+        <v>0.3262791886944711</v>
       </c>
       <c r="E19">
-        <v>0.1837650193053761</v>
+        <v>0.1850209781357464</v>
       </c>
       <c r="F19">
-        <v>0.4689174671374019</v>
+        <v>0.4374973233016277</v>
       </c>
       <c r="G19">
-        <v>0.1878938590798569</v>
+        <v>0.1539491468174887</v>
       </c>
       <c r="H19">
-        <v>0.02821180736143702</v>
+        <v>0.0279433064281065</v>
       </c>
       <c r="I19">
-        <v>0.01316259537868714</v>
+        <v>0.01225275854456953</v>
       </c>
       <c r="J19">
-        <v>0.1962961856108763</v>
+        <v>0.2198377892139405</v>
       </c>
       <c r="K19">
-        <v>0.2374706225427623</v>
+        <v>0.2058467758273643</v>
       </c>
       <c r="L19">
-        <v>0.1537575536905038</v>
+        <v>0.1178146730102902</v>
       </c>
       <c r="M19">
-        <v>7.191353654114948</v>
+        <v>0.0556186778375185</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1511847360826621</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>7.18259279405811</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7587232308876821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.6912730097621136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1035791997977924</v>
+        <v>0.06469837085602137</v>
       </c>
       <c r="D20">
-        <v>0.4150113192283982</v>
+        <v>0.4300614339806259</v>
       </c>
       <c r="E20">
-        <v>0.2967799326266984</v>
+        <v>0.299141697052697</v>
       </c>
       <c r="F20">
-        <v>0.5825731630556348</v>
+        <v>0.536945076379034</v>
       </c>
       <c r="G20">
-        <v>0.235908936950544</v>
+        <v>0.1992873308327034</v>
       </c>
       <c r="H20">
-        <v>0.004112134079777618</v>
+        <v>0.003666067602585699</v>
       </c>
       <c r="I20">
-        <v>0.01517819037997636</v>
+        <v>0.01390120176406562</v>
       </c>
       <c r="J20">
-        <v>0.2187303259517748</v>
+        <v>0.2308263115001168</v>
       </c>
       <c r="K20">
-        <v>0.2783554943264157</v>
+        <v>0.2354917640143412</v>
       </c>
       <c r="L20">
-        <v>0.290235222250999</v>
+        <v>0.1268793025067545</v>
       </c>
       <c r="M20">
-        <v>7.473897889350667</v>
+        <v>0.06991840086110201</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2861647576634851</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>7.463146213189873</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9076615781267208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8078273604078134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1166617830032948</v>
+        <v>0.07423195167743302</v>
       </c>
       <c r="D21">
-        <v>0.4693920092212522</v>
+        <v>0.4934513102143114</v>
       </c>
       <c r="E21">
-        <v>0.3391121240766708</v>
+        <v>0.3431221671749327</v>
       </c>
       <c r="F21">
-        <v>0.6240664392250181</v>
+        <v>0.5520469818143354</v>
       </c>
       <c r="G21">
-        <v>0.2493621947055118</v>
+        <v>0.253942065238931</v>
       </c>
       <c r="H21">
-        <v>0.00666724096029625</v>
+        <v>0.005872621670833189</v>
       </c>
       <c r="I21">
-        <v>0.01965072930548128</v>
+        <v>0.01738764255499259</v>
       </c>
       <c r="J21">
-        <v>0.2186031537111361</v>
+        <v>0.1806173097803239</v>
       </c>
       <c r="K21">
-        <v>0.2933650436616446</v>
+        <v>0.2339491578487056</v>
       </c>
       <c r="L21">
-        <v>0.3340673205532596</v>
+        <v>0.119843355621331</v>
       </c>
       <c r="M21">
-        <v>8.400616966213988</v>
+        <v>0.07883949366630461</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3278575734327092</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>8.384469571896773</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.9363050716789587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.7787463289459282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1271025342324066</v>
+        <v>0.08233103446963241</v>
       </c>
       <c r="D22">
-        <v>0.5001393894316095</v>
+        <v>0.5305329760417408</v>
       </c>
       <c r="E22">
-        <v>0.3610985825767585</v>
+        <v>0.3662735396626573</v>
       </c>
       <c r="F22">
-        <v>0.6484141126985321</v>
+        <v>0.5580460400219636</v>
       </c>
       <c r="G22">
-        <v>0.2578121521877392</v>
+        <v>0.2964226009905531</v>
       </c>
       <c r="H22">
-        <v>0.008612397519730267</v>
+        <v>0.007552915026412976</v>
       </c>
       <c r="I22">
-        <v>0.02257955373628651</v>
+        <v>0.01952901676870145</v>
       </c>
       <c r="J22">
-        <v>0.218407285375406</v>
+        <v>0.1557233959675344</v>
       </c>
       <c r="K22">
-        <v>0.303400662979378</v>
+        <v>0.232528669515208</v>
       </c>
       <c r="L22">
-        <v>0.3555180347328672</v>
+        <v>0.1152480013857691</v>
       </c>
       <c r="M22">
-        <v>9.006518399772801</v>
+        <v>0.08480239613949081</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3478767362140616</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>8.986561861642542</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.9540544826478765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.756490416089747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1230787974281355</v>
+        <v>0.07885422831098765</v>
       </c>
       <c r="D23">
-        <v>0.4831981729666097</v>
+        <v>0.5094507006929803</v>
       </c>
       <c r="E23">
-        <v>0.3492468267415418</v>
+        <v>0.3536370690586992</v>
       </c>
       <c r="F23">
-        <v>0.6369480900302165</v>
+        <v>0.5582783215524714</v>
       </c>
       <c r="G23">
-        <v>0.254407868239511</v>
+        <v>0.2688597500557535</v>
       </c>
       <c r="H23">
-        <v>0.007554968352054353</v>
+        <v>0.006647132062540362</v>
       </c>
       <c r="I23">
-        <v>0.02076548639061482</v>
+        <v>0.01808961281182597</v>
       </c>
       <c r="J23">
-        <v>0.2190751900787191</v>
+        <v>0.171754726496971</v>
       </c>
       <c r="K23">
-        <v>0.2996095835512307</v>
+        <v>0.2356414978459078</v>
       </c>
       <c r="L23">
-        <v>0.3441617987964918</v>
+        <v>0.1184711197682304</v>
       </c>
       <c r="M23">
-        <v>8.683232379007904</v>
+        <v>0.0825990951117781</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3374070864086747</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>8.665466358268475</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9481060181428234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.7757801450362223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1051715809741722</v>
+        <v>0.06567316532665046</v>
       </c>
       <c r="D24">
-        <v>0.4201294884429387</v>
+        <v>0.4353331490120524</v>
       </c>
       <c r="E24">
-        <v>0.3046936852086759</v>
+        <v>0.3071132431215418</v>
       </c>
       <c r="F24">
-        <v>0.592759860922385</v>
+        <v>0.5464177708743279</v>
       </c>
       <c r="G24">
-        <v>0.2411874196418182</v>
+        <v>0.2035965264926176</v>
       </c>
       <c r="H24">
-        <v>0.004108419725826096</v>
+        <v>0.003655081580750896</v>
       </c>
       <c r="I24">
-        <v>0.01480079302493476</v>
+        <v>0.01341796362420133</v>
       </c>
       <c r="J24">
-        <v>0.2215297350045731</v>
+        <v>0.2336732316118812</v>
       </c>
       <c r="K24">
-        <v>0.283560924953818</v>
+        <v>0.2398778275407381</v>
       </c>
       <c r="L24">
-        <v>0.3011201365550278</v>
+        <v>0.1285864291655798</v>
       </c>
       <c r="M24">
-        <v>7.459573239896997</v>
+        <v>0.07151691577354313</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2969728607482551</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>7.448807904303067</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.9247125632180513</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8229365348766464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08559551337779681</v>
+        <v>0.05476509076979141</v>
       </c>
       <c r="D25">
-        <v>0.3525064306303705</v>
+        <v>0.3639045345937149</v>
       </c>
       <c r="E25">
-        <v>0.25687492170713</v>
+        <v>0.2588733141930675</v>
       </c>
       <c r="F25">
-        <v>0.5487248807884342</v>
+        <v>0.5140247992266183</v>
       </c>
       <c r="G25">
-        <v>0.230002318207795</v>
+        <v>0.1940959075085402</v>
       </c>
       <c r="H25">
-        <v>0.001477395739636567</v>
+        <v>0.00130612629155169</v>
       </c>
       <c r="I25">
-        <v>0.009432534812665594</v>
+        <v>0.008998269996670416</v>
       </c>
       <c r="J25">
-        <v>0.2259755970138997</v>
+        <v>0.2449714485263002</v>
       </c>
       <c r="K25">
-        <v>0.2680903748019219</v>
+        <v>0.2339082131672576</v>
       </c>
       <c r="L25">
-        <v>0.2548768579778056</v>
+        <v>0.1360024668977964</v>
       </c>
       <c r="M25">
-        <v>6.140391637742084</v>
+        <v>0.05697181647011007</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2520754916741055</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>6.134462501314999</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9097361663488925</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8324318219014941</v>
       </c>
     </row>
   </sheetData>
